--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Tmc03fsd1\PA\10_技能育成\02_ショップ別\01_デジタル\01_研修\01_デジタル全員研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F6EA1F00-7757-4960-BE67-4F93149073FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC83E96-917C-408D-975A-86385295125D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0979FF-820A-4838-BB10-BFABF6FE3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="570" windowWidth="23910" windowHeight="14115" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="945" yWindow="135" windowWidth="21600" windowHeight="11295" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2032,19 +2032,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2058,6 +2049,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2345,13 +2345,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180388</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2395,13 +2395,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>183563</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2445,13 +2445,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>183563</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2500,7 +2500,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="366126" cy="346075"/>
@@ -2545,7 +2545,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="366126" cy="342900"/>
@@ -2590,7 +2590,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="366126" cy="339725"/>
@@ -2635,9 +2635,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2675,7 +2675,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2781,7 +2781,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2923,7 +2923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2931,70 +2931,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795CA75-2E57-4007-A1E6-AF0752BF2C5D}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="39"/>
+    <col min="2" max="2" width="9.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="39"/>
+    <col min="4" max="5" width="10.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="38" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="38" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="38" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="38" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="38" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="38" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="38" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="38" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="21" t="s">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="38" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3010,8 +3006,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8732,7 +8727,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0051BF1-256B-4B57-B5C2-7CB0BABD75BC}">
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -8762,10 +8757,10 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="15">
@@ -8894,8 +8889,8 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="17" t="s">
         <v>217</v>
       </c>
@@ -9130,385 +9125,141 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-    </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
+      <c r="B12" s="21" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B20" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C21" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D25" s="22" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D26" s="22" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D18" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E18" s="23" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D27" s="22"/>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D19" s="22"/>
+      <c r="E19" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D20" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D21" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C23" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C24" s="21"/>
+      <c r="D24" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C25" s="21"/>
+      <c r="D25" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D27" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="E27" s="23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D28" s="22" t="s">
         <v>230</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="D29" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D30" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C31" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C32" s="21"/>
-      <c r="D32" s="24" t="s">
-        <v>236</v>
-      </c>
+      <c r="E30" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C33" s="21"/>
-      <c r="D33" s="24" t="s">
-        <v>237</v>
-      </c>
+      <c r="D33" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D35" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>238</v>
-      </c>
+      <c r="C35" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D36" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D37" s="22"/>
-      <c r="E37" s="23" t="s">
-        <v>240</v>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.4">
@@ -9516,42 +9267,6 @@
         <v>230</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C40" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C43" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C44" s="21"/>
-      <c r="D44" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D46" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E46" s="23" t="s">
         <v>246</v>
       </c>
     </row>
@@ -9568,7 +9283,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C867672-5A85-4B0C-A0A5-E7FD6756FEBF}">
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -9597,268 +9312,268 @@
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33">
         <v>2</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36">
+      <c r="F5" s="34"/>
+      <c r="G5" s="33">
         <v>3</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36">
+      <c r="H5" s="34"/>
+      <c r="I5" s="33">
         <v>4</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38">
+      <c r="J5" s="34"/>
+      <c r="K5" s="35">
         <v>5</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="38">
+      <c r="L5" s="36"/>
+      <c r="M5" s="35">
         <v>6</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="36">
+      <c r="N5" s="36"/>
+      <c r="O5" s="33">
         <v>7</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="36">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="33">
         <v>8</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="36">
+      <c r="R5" s="34"/>
+      <c r="S5" s="33">
         <v>9</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="36">
+      <c r="T5" s="34"/>
+      <c r="U5" s="33">
         <v>10</v>
       </c>
-      <c r="V5" s="37"/>
-      <c r="W5" s="36">
+      <c r="V5" s="34"/>
+      <c r="W5" s="33">
         <v>11</v>
       </c>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="38">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35">
         <v>12</v>
       </c>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="38">
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="35">
         <v>13</v>
       </c>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="36">
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="33">
         <v>14</v>
       </c>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="36">
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="33">
         <v>15</v>
       </c>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="36">
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="33">
         <v>16</v>
       </c>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="36">
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="33">
         <v>17</v>
       </c>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="36">
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="33">
         <v>18</v>
       </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="38">
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="35">
         <v>19</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="38">
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="35">
         <v>20</v>
       </c>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="36">
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="33">
         <v>21</v>
       </c>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="36">
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="33">
         <v>22</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="36">
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="33">
         <v>23</v>
       </c>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="36">
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="33">
         <v>24</v>
       </c>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="36">
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="33">
         <v>25</v>
       </c>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="38">
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="35">
         <v>26</v>
       </c>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="38">
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="35">
         <v>27</v>
       </c>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="36">
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="33">
         <v>28</v>
       </c>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="36">
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="33">
         <v>29</v>
       </c>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="36">
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="33">
         <v>30</v>
       </c>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="36">
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="33">
         <v>31</v>
       </c>
-      <c r="BL5" s="37"/>
+      <c r="BL5" s="34"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="34"/>
+      <c r="K6" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="38" t="s">
+      <c r="L6" s="36"/>
+      <c r="M6" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="36" t="s">
+      <c r="N6" s="36"/>
+      <c r="O6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="36" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="36" t="s">
+      <c r="T6" s="34"/>
+      <c r="U6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="V6" s="37"/>
-      <c r="W6" s="36" t="s">
+      <c r="V6" s="34"/>
+      <c r="W6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="38" t="s">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="38" t="s">
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="36" t="s">
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="36" t="s">
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="36" t="s">
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="36" t="s">
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="36" t="s">
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="38" t="s">
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="38" t="s">
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="36" t="s">
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="36" t="s">
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="36" t="s">
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="36" t="s">
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="36" t="s">
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="38" t="s">
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="BB6" s="39"/>
-      <c r="BC6" s="38" t="s">
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="BD6" s="39"/>
-      <c r="BE6" s="36" t="s">
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="36" t="s">
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="BH6" s="37"/>
-      <c r="BI6" s="36" t="s">
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="BJ6" s="37"/>
-      <c r="BK6" s="36" t="s">
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="BL6" s="37"/>
+      <c r="BL6" s="34"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="17" t="s">
         <v>257</v>
       </c>
@@ -10310,592 +10025,82 @@
       <c r="BK11" s="19"/>
       <c r="BL11" s="19"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="19"/>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="19"/>
-      <c r="BI12" s="19"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="19"/>
-      <c r="BL12" s="19"/>
-    </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="20"/>
-      <c r="BB13" s="20"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="19"/>
-      <c r="BF13" s="19"/>
-      <c r="BG13" s="19"/>
-      <c r="BH13" s="19"/>
-      <c r="BI13" s="19"/>
-      <c r="BJ13" s="19"/>
-      <c r="BK13" s="19"/>
-      <c r="BL13" s="19"/>
+      <c r="B13" s="21" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="20"/>
-      <c r="BB14" s="20"/>
-      <c r="BC14" s="20"/>
-      <c r="BD14" s="20"/>
-      <c r="BE14" s="19"/>
-      <c r="BF14" s="19"/>
-      <c r="BG14" s="19"/>
-      <c r="BH14" s="19"/>
-      <c r="BI14" s="19"/>
-      <c r="BJ14" s="19"/>
-      <c r="BK14" s="19"/>
-      <c r="BL14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="20"/>
-      <c r="BB15" s="20"/>
-      <c r="BC15" s="20"/>
-      <c r="BD15" s="20"/>
-      <c r="BE15" s="19"/>
-      <c r="BF15" s="19"/>
-      <c r="BG15" s="19"/>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="19"/>
-      <c r="BJ15" s="19"/>
-      <c r="BK15" s="19"/>
-      <c r="BL15" s="19"/>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="20"/>
-      <c r="BB16" s="20"/>
-      <c r="BC16" s="20"/>
-      <c r="BD16" s="20"/>
-      <c r="BE16" s="19"/>
-      <c r="BF16" s="19"/>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="19"/>
-      <c r="BL16" s="19"/>
-    </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="20"/>
-      <c r="BB17" s="20"/>
-      <c r="BC17" s="20"/>
-      <c r="BD17" s="20"/>
-      <c r="BE17" s="19"/>
-      <c r="BF17" s="19"/>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="19"/>
-      <c r="BJ17" s="19"/>
-      <c r="BK17" s="19"/>
-      <c r="BL17" s="19"/>
-    </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="20"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="20"/>
-      <c r="BE18" s="19"/>
-      <c r="BF18" s="19"/>
-      <c r="BG18" s="19"/>
-      <c r="BH18" s="19"/>
-      <c r="BI18" s="19"/>
-      <c r="BJ18" s="19"/>
-      <c r="BK18" s="19"/>
-      <c r="BL18" s="19"/>
-    </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="B20" s="21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="C21" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="D22" s="21" t="s">
+      <c r="D15" s="21" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="D24" s="22" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="C26" s="21" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C19" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="D29" s="22" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D22" s="22" t="s">
         <v>230</v>
       </c>
+      <c r="E22" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C24" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D28" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E29" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="C31" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D35" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E36" s="23" t="s">
         <v>247</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -10912,6 +10117,54 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Tmc03fsd1\PA\10_技能育成\02_ショップ別\01_デジタル\01_研修\01_デジタル全員研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0979FF-820A-4838-BB10-BFABF6FE3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5C0979FF-820A-4838-BB10-BFABF6FE3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6231C9A6-8034-4C2A-AA55-53A7E2F88E2A}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="135" windowWidth="21600" windowHeight="11295" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="2895" yWindow="675" windowWidth="24090" windowHeight="14805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="306">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1722,6 +1722,32 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性の身長の平均値：</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性の体重の平均値：</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヘイキンチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2032,10 +2058,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2049,15 +2084,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2937,60 +2963,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="39"/>
-    <col min="2" max="2" width="9.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="39"/>
-    <col min="4" max="5" width="10.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="9" style="32"/>
+    <col min="2" max="2" width="9.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="32"/>
+    <col min="4" max="5" width="10.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="31" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="31" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="31" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="31" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="31" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="31" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="31" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="31" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3005,9 +3031,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3336,13 +3360,13 @@
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D49" s="22" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E49" s="9"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D50" s="22" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E50" s="9"/>
     </row>
@@ -8757,10 +8781,10 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="15">
@@ -8889,8 +8913,8 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="17" t="s">
         <v>217</v>
       </c>
@@ -9312,268 +9336,268 @@
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="36">
         <v>1</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33">
+      <c r="D5" s="37"/>
+      <c r="E5" s="36">
         <v>2</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33">
+      <c r="F5" s="37"/>
+      <c r="G5" s="36">
         <v>3</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33">
+      <c r="H5" s="37"/>
+      <c r="I5" s="36">
         <v>4</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35">
+      <c r="J5" s="37"/>
+      <c r="K5" s="38">
         <v>5</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35">
+      <c r="L5" s="39"/>
+      <c r="M5" s="38">
         <v>6</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="33">
+      <c r="N5" s="39"/>
+      <c r="O5" s="36">
         <v>7</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="33">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="36">
         <v>8</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="33">
+      <c r="R5" s="37"/>
+      <c r="S5" s="36">
         <v>9</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="33">
+      <c r="T5" s="37"/>
+      <c r="U5" s="36">
         <v>10</v>
       </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="33">
+      <c r="V5" s="37"/>
+      <c r="W5" s="36">
         <v>11</v>
       </c>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35">
+      <c r="X5" s="37"/>
+      <c r="Y5" s="38">
         <v>12</v>
       </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="35">
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="38">
         <v>13</v>
       </c>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="33">
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="36">
         <v>14</v>
       </c>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="33">
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="36">
         <v>15</v>
       </c>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="33">
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="36">
         <v>16</v>
       </c>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="33">
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="36">
         <v>17</v>
       </c>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="33">
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="36">
         <v>18</v>
       </c>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="35">
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="38">
         <v>19</v>
       </c>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="35">
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="38">
         <v>20</v>
       </c>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="33">
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="36">
         <v>21</v>
       </c>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="33">
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="36">
         <v>22</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="33">
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="36">
         <v>23</v>
       </c>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="33">
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="36">
         <v>24</v>
       </c>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="33">
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="36">
         <v>25</v>
       </c>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="35">
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="38">
         <v>26</v>
       </c>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="35">
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="38">
         <v>27</v>
       </c>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="33">
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="36">
         <v>28</v>
       </c>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="33">
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="36">
         <v>29</v>
       </c>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="33">
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="36">
         <v>30</v>
       </c>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="33">
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="36">
         <v>31</v>
       </c>
-      <c r="BL5" s="34"/>
+      <c r="BL5" s="37"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="33" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="35" t="s">
+      <c r="L6" s="39"/>
+      <c r="M6" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="33" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="33" t="s">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="33" t="s">
+      <c r="R6" s="37"/>
+      <c r="S6" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="33" t="s">
+      <c r="T6" s="37"/>
+      <c r="U6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="V6" s="34"/>
-      <c r="W6" s="33" t="s">
+      <c r="V6" s="37"/>
+      <c r="W6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="35" t="s">
+      <c r="X6" s="37"/>
+      <c r="Y6" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="35" t="s">
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="33" t="s">
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="33" t="s">
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="33" t="s">
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="33" t="s">
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="33" t="s">
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="35" t="s">
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="35" t="s">
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="33" t="s">
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="33" t="s">
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="33" t="s">
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="33" t="s">
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="33" t="s">
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="35" t="s">
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="35" t="s">
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="33" t="s">
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="33" t="s">
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="33" t="s">
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="33" t="s">
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="BL6" s="34"/>
+      <c r="BL6" s="37"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="17" t="s">
         <v>257</v>
       </c>
@@ -10101,6 +10125,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -10117,54 +10189,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5C0979FF-820A-4838-BB10-BFABF6FE3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6231C9A6-8034-4C2A-AA55-53A7E2F88E2A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5C0979FF-820A-4838-BB10-BFABF6FE3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C138C3-7DC0-4A57-A06F-1C4FE08D8710}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="675" windowWidth="24090" windowHeight="14805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="1170" yWindow="390" windowWidth="24345" windowHeight="14970" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -2070,9 +2070,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2083,6 +2080,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2980,29 +2980,35 @@
         <v>278</v>
       </c>
     </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="31"/>
+    </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" s="31" t="s">
-        <v>273</v>
-      </c>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="31"/>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
@@ -9342,258 +9348,258 @@
       <c r="B5" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>1</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36">
+      <c r="D5" s="36"/>
+      <c r="E5" s="35">
         <v>2</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36">
+      <c r="F5" s="36"/>
+      <c r="G5" s="35">
         <v>3</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36">
+      <c r="H5" s="36"/>
+      <c r="I5" s="35">
         <v>4</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38">
+      <c r="J5" s="36"/>
+      <c r="K5" s="37">
         <v>5</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="38">
+      <c r="L5" s="38"/>
+      <c r="M5" s="37">
         <v>6</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="36">
+      <c r="N5" s="38"/>
+      <c r="O5" s="35">
         <v>7</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="36">
+      <c r="P5" s="36"/>
+      <c r="Q5" s="35">
         <v>8</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="36">
+      <c r="R5" s="36"/>
+      <c r="S5" s="35">
         <v>9</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="36">
+      <c r="T5" s="36"/>
+      <c r="U5" s="35">
         <v>10</v>
       </c>
-      <c r="V5" s="37"/>
-      <c r="W5" s="36">
+      <c r="V5" s="36"/>
+      <c r="W5" s="35">
         <v>11</v>
       </c>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="38">
+      <c r="X5" s="36"/>
+      <c r="Y5" s="37">
         <v>12</v>
       </c>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="38">
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="37">
         <v>13</v>
       </c>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="36">
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="35">
         <v>14</v>
       </c>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="36">
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="35">
         <v>15</v>
       </c>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="36">
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="35">
         <v>16</v>
       </c>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="36">
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="35">
         <v>17</v>
       </c>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="36">
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="35">
         <v>18</v>
       </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="38">
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="37">
         <v>19</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="38">
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="37">
         <v>20</v>
       </c>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="36">
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="35">
         <v>21</v>
       </c>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="36">
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="35">
         <v>22</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="36">
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="35">
         <v>23</v>
       </c>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="36">
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="35">
         <v>24</v>
       </c>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="36">
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="35">
         <v>25</v>
       </c>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="38">
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="37">
         <v>26</v>
       </c>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="38">
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="37">
         <v>27</v>
       </c>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="36">
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="35">
         <v>28</v>
       </c>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="36">
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="35">
         <v>29</v>
       </c>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="36">
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="35">
         <v>30</v>
       </c>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="36">
+      <c r="BJ5" s="36"/>
+      <c r="BK5" s="35">
         <v>31</v>
       </c>
-      <c r="BL5" s="37"/>
+      <c r="BL5" s="36"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="38" t="s">
+      <c r="L6" s="38"/>
+      <c r="M6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="36" t="s">
+      <c r="N6" s="38"/>
+      <c r="O6" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="36" t="s">
+      <c r="R6" s="36"/>
+      <c r="S6" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="36" t="s">
+      <c r="T6" s="36"/>
+      <c r="U6" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="V6" s="37"/>
-      <c r="W6" s="36" t="s">
+      <c r="V6" s="36"/>
+      <c r="W6" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="38" t="s">
+      <c r="X6" s="36"/>
+      <c r="Y6" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="38" t="s">
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="36" t="s">
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="36" t="s">
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="36" t="s">
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="36" t="s">
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="36" t="s">
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="38" t="s">
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="38" t="s">
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="36" t="s">
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="36" t="s">
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="36" t="s">
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="36" t="s">
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="36" t="s">
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="38" t="s">
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="BB6" s="39"/>
-      <c r="BC6" s="38" t="s">
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BD6" s="39"/>
-      <c r="BE6" s="36" t="s">
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="36" t="s">
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="BH6" s="37"/>
-      <c r="BI6" s="36" t="s">
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="BJ6" s="37"/>
-      <c r="BK6" s="36" t="s">
+      <c r="BJ6" s="36"/>
+      <c r="BK6" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="BL6" s="37"/>
+      <c r="BL6" s="36"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A7" s="34"/>
@@ -10125,54 +10131,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -10189,6 +10147,54 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -5,31 +5,33 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3169885\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AAFC58-E7FE-4A62-BAC6-A74177BE2B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{A00D83F5-B591-4B8C-A3D9-0A7E1F129DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6113C0-0EAE-473C-A759-79998CE7184C}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="810" windowWidth="20385" windowHeight="12705" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
     <sheet name="関数" sheetId="2" r:id="rId2"/>
-    <sheet name="条件分岐" sheetId="12" r:id="rId3"/>
-    <sheet name="条件分岐_複数" sheetId="13" r:id="rId4"/>
-    <sheet name="検索と置換" sheetId="14" r:id="rId5"/>
-    <sheet name="フィルターとソート" sheetId="1" r:id="rId6"/>
-    <sheet name="グラフ" sheetId="9" r:id="rId7"/>
-    <sheet name="ERROR" sheetId="5" r:id="rId8"/>
-    <sheet name="書式設定【基礎】" sheetId="6" r:id="rId9"/>
-    <sheet name="書式設定【応用】" sheetId="7" r:id="rId10"/>
-    <sheet name="関数【応用】" sheetId="10" r:id="rId11"/>
-    <sheet name="TOYOTAカレンダー" sheetId="8" r:id="rId12"/>
-    <sheet name="LIST" sheetId="11" state="hidden" r:id="rId13"/>
+    <sheet name="文字列操作" sheetId="15" r:id="rId3"/>
+    <sheet name="条件分岐" sheetId="12" r:id="rId4"/>
+    <sheet name="条件分岐_複数" sheetId="13" r:id="rId5"/>
+    <sheet name="検索と置換" sheetId="14" r:id="rId6"/>
+    <sheet name="フィルターとソート" sheetId="1" r:id="rId7"/>
+    <sheet name="グラフ" sheetId="9" r:id="rId8"/>
+    <sheet name="ERROR" sheetId="5" r:id="rId9"/>
+    <sheet name="書式設定【基礎】" sheetId="6" r:id="rId10"/>
+    <sheet name="書式設定【応用】" sheetId="7" r:id="rId11"/>
+    <sheet name="関数【応用】" sheetId="10" r:id="rId12"/>
+    <sheet name="TOYOTAカレンダー" sheetId="8" r:id="rId13"/>
+    <sheet name="LIST" sheetId="11" state="hidden" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">グラフ!$A$1:$H$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">フィルターとソート!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">グラフ!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">フィルターとソート!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">文字列操作!$A$1:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="418">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -2491,6 +2493,20 @@
   <si>
     <t>DSDW-12250A</t>
     <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3038,7 +3054,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3209,27 +3225,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3287,6 +3282,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
@@ -5775,6 +5794,562 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0051BF1-256B-4B57-B5C2-7CB0BABD75BC}">
+  <dimension ref="A1:AG38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="33" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="15">
+        <f>DATE($A$2,$B$2,1)</f>
+        <v>45566</v>
+      </c>
+      <c r="D5" s="15">
+        <f>C5+1</f>
+        <v>45567</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" ref="E5:AG5" si="0">D5+1</f>
+        <v>45568</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>45569</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
+        <v>45570</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>45571</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>45572</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
+        <v>45573</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="0"/>
+        <v>45574</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>45575</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="0"/>
+        <v>45576</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" si="0"/>
+        <v>45577</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" si="0"/>
+        <v>45578</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="0"/>
+        <v>45579</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="0"/>
+        <v>45580</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" si="0"/>
+        <v>45581</v>
+      </c>
+      <c r="S5" s="15">
+        <f t="shared" si="0"/>
+        <v>45582</v>
+      </c>
+      <c r="T5" s="15">
+        <f t="shared" si="0"/>
+        <v>45583</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="0"/>
+        <v>45584</v>
+      </c>
+      <c r="V5" s="16">
+        <f t="shared" si="0"/>
+        <v>45585</v>
+      </c>
+      <c r="W5" s="15">
+        <f t="shared" si="0"/>
+        <v>45586</v>
+      </c>
+      <c r="X5" s="15">
+        <f t="shared" si="0"/>
+        <v>45587</v>
+      </c>
+      <c r="Y5" s="15">
+        <f t="shared" si="0"/>
+        <v>45588</v>
+      </c>
+      <c r="Z5" s="15">
+        <f t="shared" si="0"/>
+        <v>45589</v>
+      </c>
+      <c r="AA5" s="15">
+        <f t="shared" si="0"/>
+        <v>45590</v>
+      </c>
+      <c r="AB5" s="16">
+        <f t="shared" si="0"/>
+        <v>45591</v>
+      </c>
+      <c r="AC5" s="16">
+        <f t="shared" si="0"/>
+        <v>45592</v>
+      </c>
+      <c r="AD5" s="15">
+        <f t="shared" si="0"/>
+        <v>45593</v>
+      </c>
+      <c r="AE5" s="15">
+        <f t="shared" si="0"/>
+        <v>45594</v>
+      </c>
+      <c r="AF5" s="15">
+        <f t="shared" si="0"/>
+        <v>45595</v>
+      </c>
+      <c r="AG5" s="15">
+        <f t="shared" si="0"/>
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF6" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="B12" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C13" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D18" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D19" s="22"/>
+      <c r="E19" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D20" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D21" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C23" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C24" s="21"/>
+      <c r="D24" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C25" s="21"/>
+      <c r="D25" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D27" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D28" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D30" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C35" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D38" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C867672-5A85-4B0C-A0A5-E7FD6756FEBF}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
@@ -5805,268 +6380,268 @@
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="83">
         <v>1</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="61">
+      <c r="D5" s="84"/>
+      <c r="E5" s="83">
         <v>2</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61">
+      <c r="F5" s="84"/>
+      <c r="G5" s="83">
         <v>3</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61">
+      <c r="H5" s="84"/>
+      <c r="I5" s="83">
         <v>4</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63">
+      <c r="J5" s="84"/>
+      <c r="K5" s="85">
         <v>5</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="63">
+      <c r="L5" s="86"/>
+      <c r="M5" s="85">
         <v>6</v>
       </c>
-      <c r="N5" s="64"/>
-      <c r="O5" s="61">
+      <c r="N5" s="86"/>
+      <c r="O5" s="83">
         <v>7</v>
       </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61">
+      <c r="P5" s="84"/>
+      <c r="Q5" s="83">
         <v>8</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="61">
+      <c r="R5" s="84"/>
+      <c r="S5" s="83">
         <v>9</v>
       </c>
-      <c r="T5" s="62"/>
-      <c r="U5" s="61">
+      <c r="T5" s="84"/>
+      <c r="U5" s="83">
         <v>10</v>
       </c>
-      <c r="V5" s="62"/>
-      <c r="W5" s="61">
+      <c r="V5" s="84"/>
+      <c r="W5" s="83">
         <v>11</v>
       </c>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="63">
+      <c r="X5" s="84"/>
+      <c r="Y5" s="85">
         <v>12</v>
       </c>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="63">
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="85">
         <v>13</v>
       </c>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="61">
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="83">
         <v>14</v>
       </c>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="61">
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="83">
         <v>15</v>
       </c>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="61">
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="83">
         <v>16</v>
       </c>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="61">
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="83">
         <v>17</v>
       </c>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="61">
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="83">
         <v>18</v>
       </c>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="63">
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="85">
         <v>19</v>
       </c>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="63">
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="85">
         <v>20</v>
       </c>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="61">
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="83">
         <v>21</v>
       </c>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="61">
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="83">
         <v>22</v>
       </c>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="61">
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="83">
         <v>23</v>
       </c>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="61">
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="83">
         <v>24</v>
       </c>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="61">
+      <c r="AX5" s="84"/>
+      <c r="AY5" s="83">
         <v>25</v>
       </c>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="63">
+      <c r="AZ5" s="84"/>
+      <c r="BA5" s="85">
         <v>26</v>
       </c>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="63">
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="85">
         <v>27</v>
       </c>
-      <c r="BD5" s="64"/>
-      <c r="BE5" s="61">
+      <c r="BD5" s="86"/>
+      <c r="BE5" s="83">
         <v>28</v>
       </c>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="61">
+      <c r="BF5" s="84"/>
+      <c r="BG5" s="83">
         <v>29</v>
       </c>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="61">
+      <c r="BH5" s="84"/>
+      <c r="BI5" s="83">
         <v>30</v>
       </c>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="61">
+      <c r="BJ5" s="84"/>
+      <c r="BK5" s="83">
         <v>31</v>
       </c>
-      <c r="BL5" s="62"/>
+      <c r="BL5" s="84"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="61" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="84"/>
+      <c r="G6" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="61" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63" t="s">
+      <c r="J6" s="84"/>
+      <c r="K6" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="63" t="s">
+      <c r="L6" s="86"/>
+      <c r="M6" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="61" t="s">
+      <c r="N6" s="86"/>
+      <c r="O6" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="61" t="s">
+      <c r="P6" s="84"/>
+      <c r="Q6" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="62"/>
-      <c r="S6" s="61" t="s">
+      <c r="R6" s="84"/>
+      <c r="S6" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="T6" s="62"/>
-      <c r="U6" s="61" t="s">
+      <c r="T6" s="84"/>
+      <c r="U6" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="V6" s="62"/>
-      <c r="W6" s="61" t="s">
+      <c r="V6" s="84"/>
+      <c r="W6" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="63" t="s">
+      <c r="X6" s="84"/>
+      <c r="Y6" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="63" t="s">
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="61" t="s">
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="61" t="s">
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="61" t="s">
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61" t="s">
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="61" t="s">
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="63" t="s">
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="63" t="s">
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="61" t="s">
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="61" t="s">
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="61" t="s">
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="61" t="s">
+      <c r="AV6" s="84"/>
+      <c r="AW6" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="61" t="s">
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="AZ6" s="62"/>
-      <c r="BA6" s="63" t="s">
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="63" t="s">
+      <c r="BB6" s="86"/>
+      <c r="BC6" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="61" t="s">
+      <c r="BD6" s="86"/>
+      <c r="BE6" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="BF6" s="62"/>
-      <c r="BG6" s="61" t="s">
+      <c r="BF6" s="84"/>
+      <c r="BG6" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="BH6" s="62"/>
-      <c r="BI6" s="61" t="s">
+      <c r="BH6" s="84"/>
+      <c r="BI6" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="BJ6" s="62"/>
-      <c r="BK6" s="61" t="s">
+      <c r="BJ6" s="84"/>
+      <c r="BK6" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="BL6" s="62"/>
+      <c r="BL6" s="84"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="17" t="s">
         <v>257</v>
       </c>
@@ -6665,7 +7240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D41923-D28C-4D44-B8F8-AD674F8993FB}">
   <dimension ref="B2:O56"/>
   <sheetViews>
@@ -7304,7 +7879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAB4FA3-9020-45ED-B2DA-ED236D8A5AE2}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -16381,7 +16956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC79B8A7-FF02-4123-90DC-97D25F02B066}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -16778,6 +17353,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B64004F-4575-4D94-B583-6E49E403B409}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A632DF-1DFD-4A38-9700-AB7F101EBB78}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -16794,308 +17501,308 @@
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="61" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="63">
         <v>67</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="66">
         <v>99</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="67"/>
       <c r="G4" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="66">
         <v>75</v>
       </c>
-      <c r="D5" s="74"/>
+      <c r="D5" s="67"/>
       <c r="G5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="66">
         <v>45</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="67"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="66">
         <v>55</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="67"/>
       <c r="G7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="66">
         <v>74</v>
       </c>
-      <c r="D8" s="74"/>
+      <c r="D8" s="67"/>
       <c r="G8" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="66">
         <v>67</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="66">
         <v>45</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="67"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="66">
         <v>70</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="67"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="66">
         <v>100</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="67"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="66">
         <v>66</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="67"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="66">
         <v>48</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="67"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="69">
         <v>96</v>
       </c>
-      <c r="D15" s="77"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="71" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="60" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="63">
         <v>67</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="64" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="66">
         <v>99</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="66">
         <v>75</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="66">
         <v>45</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="66">
         <v>55</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="66">
         <v>74</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="66">
         <v>67</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="66">
         <v>45</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="66">
         <v>70</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="66">
         <v>100</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="66">
         <v>66</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="66">
         <v>48</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="69">
         <v>96</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="70" t="s">
         <v>372</v>
       </c>
     </row>
@@ -17106,7 +17813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689EC7F3-02F8-430F-B583-4AFFA1276743}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -17123,392 +17830,392 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="61" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="63">
         <v>67</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="73">
         <v>79</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="66">
         <v>99</v>
       </c>
       <c r="D4" s="5">
         <v>62</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="67"/>
       <c r="H4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="66">
         <v>75</v>
       </c>
       <c r="D5" s="5">
         <v>78</v>
       </c>
-      <c r="E5" s="74"/>
+      <c r="E5" s="67"/>
       <c r="H5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="66">
         <v>45</v>
       </c>
       <c r="D6" s="5">
         <v>58</v>
       </c>
-      <c r="E6" s="74"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="66">
         <v>55</v>
       </c>
       <c r="D7" s="5">
         <v>50</v>
       </c>
-      <c r="E7" s="74"/>
+      <c r="E7" s="67"/>
       <c r="H7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="66">
         <v>74</v>
       </c>
       <c r="D8" s="5">
         <v>70</v>
       </c>
-      <c r="E8" s="74"/>
+      <c r="E8" s="67"/>
       <c r="H8" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="66">
         <v>67</v>
       </c>
       <c r="D9" s="5">
         <v>65</v>
       </c>
-      <c r="E9" s="74"/>
+      <c r="E9" s="67"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="66">
         <v>45</v>
       </c>
       <c r="D10" s="5">
         <v>44</v>
       </c>
-      <c r="E10" s="74"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="66">
         <v>70</v>
       </c>
       <c r="D11" s="5">
         <v>60</v>
       </c>
-      <c r="E11" s="74"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="66">
         <v>100</v>
       </c>
       <c r="D12" s="5">
         <v>80</v>
       </c>
-      <c r="E12" s="74"/>
+      <c r="E12" s="67"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="66">
         <v>66</v>
       </c>
       <c r="D13" s="5">
         <v>40</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="66">
         <v>48</v>
       </c>
       <c r="D14" s="5">
         <v>35</v>
       </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="69">
         <v>96</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="74">
         <v>85</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="71" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="60" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="63">
         <v>67</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="73">
         <v>79</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="64" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="66">
         <v>99</v>
       </c>
       <c r="D21" s="5">
         <v>62</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="66">
         <v>75</v>
       </c>
       <c r="D22" s="5">
         <v>78</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="66">
         <v>45</v>
       </c>
       <c r="D23" s="5">
         <v>58</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="66">
         <v>55</v>
       </c>
       <c r="D24" s="5">
         <v>50</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="66">
         <v>74</v>
       </c>
       <c r="D25" s="5">
         <v>70</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="66">
         <v>67</v>
       </c>
       <c r="D26" s="5">
         <v>65</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="66">
         <v>45</v>
       </c>
       <c r="D27" s="5">
         <v>44</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="66">
         <v>70</v>
       </c>
       <c r="D28" s="5">
         <v>60</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="66">
         <v>100</v>
       </c>
       <c r="D29" s="5">
         <v>80</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="67" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="66">
         <v>66</v>
       </c>
       <c r="D30" s="5">
         <v>40</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="66">
         <v>48</v>
       </c>
       <c r="D31" s="5">
         <v>35</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="69">
         <v>96</v>
       </c>
-      <c r="D32" s="81">
+      <c r="D32" s="74">
         <v>85</v>
       </c>
-      <c r="E32" s="77" t="s">
+      <c r="E32" s="70" t="s">
         <v>372</v>
       </c>
     </row>
@@ -17519,7 +18226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645BCCB-FDF9-4908-AE35-04DE7AA719A9}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -17543,196 +18250,196 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="75" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="75" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="75" t="s">
         <v>392</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="75" t="s">
         <v>393</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="75" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="75" t="s">
         <v>393</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="75" t="s">
         <v>400</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="75" t="s">
         <v>401</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="75" t="s">
         <v>402</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="75" t="s">
         <v>403</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="75" t="s">
         <v>401</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="75" t="s">
         <v>406</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="75" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="75" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="75" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="75" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="75" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="75" t="s">
         <v>401</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="75" t="s">
         <v>411</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="75" t="s">
         <v>400</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="75" t="s">
         <v>412</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="77" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="77" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="85"/>
+      <c r="B14" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -17740,7 +18447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D83EC3-69BA-424D-876B-D813E8C40CF0}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J101"/>
@@ -20389,7 +21096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2654134-E603-4836-8FB9-E964FD276BF1}">
   <dimension ref="A1:J101"/>
   <sheetViews>
@@ -23037,7 +23744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF40B12B-B164-4AE3-9718-934BEE588E88}">
   <dimension ref="B3:E7"/>
   <sheetViews>
@@ -23110,560 +23817,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0051BF1-256B-4B57-B5C2-7CB0BABD75BC}">
-  <dimension ref="A1:AG38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="33" width="5.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="13">
-        <v>2024</v>
-      </c>
-      <c r="B2" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="15">
-        <f>DATE($A$2,$B$2,1)</f>
-        <v>45566</v>
-      </c>
-      <c r="D5" s="15">
-        <f>C5+1</f>
-        <v>45567</v>
-      </c>
-      <c r="E5" s="15">
-        <f t="shared" ref="E5:AG5" si="0">D5+1</f>
-        <v>45568</v>
-      </c>
-      <c r="F5" s="15">
-        <f t="shared" si="0"/>
-        <v>45569</v>
-      </c>
-      <c r="G5" s="16">
-        <f t="shared" si="0"/>
-        <v>45570</v>
-      </c>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>45571</v>
-      </c>
-      <c r="I5" s="15">
-        <f t="shared" si="0"/>
-        <v>45572</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="0"/>
-        <v>45573</v>
-      </c>
-      <c r="K5" s="15">
-        <f t="shared" si="0"/>
-        <v>45574</v>
-      </c>
-      <c r="L5" s="15">
-        <f t="shared" si="0"/>
-        <v>45575</v>
-      </c>
-      <c r="M5" s="15">
-        <f t="shared" si="0"/>
-        <v>45576</v>
-      </c>
-      <c r="N5" s="16">
-        <f t="shared" si="0"/>
-        <v>45577</v>
-      </c>
-      <c r="O5" s="16">
-        <f t="shared" si="0"/>
-        <v>45578</v>
-      </c>
-      <c r="P5" s="15">
-        <f t="shared" si="0"/>
-        <v>45579</v>
-      </c>
-      <c r="Q5" s="15">
-        <f t="shared" si="0"/>
-        <v>45580</v>
-      </c>
-      <c r="R5" s="15">
-        <f t="shared" si="0"/>
-        <v>45581</v>
-      </c>
-      <c r="S5" s="15">
-        <f t="shared" si="0"/>
-        <v>45582</v>
-      </c>
-      <c r="T5" s="15">
-        <f t="shared" si="0"/>
-        <v>45583</v>
-      </c>
-      <c r="U5" s="16">
-        <f t="shared" si="0"/>
-        <v>45584</v>
-      </c>
-      <c r="V5" s="16">
-        <f t="shared" si="0"/>
-        <v>45585</v>
-      </c>
-      <c r="W5" s="15">
-        <f t="shared" si="0"/>
-        <v>45586</v>
-      </c>
-      <c r="X5" s="15">
-        <f t="shared" si="0"/>
-        <v>45587</v>
-      </c>
-      <c r="Y5" s="15">
-        <f t="shared" si="0"/>
-        <v>45588</v>
-      </c>
-      <c r="Z5" s="15">
-        <f t="shared" si="0"/>
-        <v>45589</v>
-      </c>
-      <c r="AA5" s="15">
-        <f t="shared" si="0"/>
-        <v>45590</v>
-      </c>
-      <c r="AB5" s="16">
-        <f t="shared" si="0"/>
-        <v>45591</v>
-      </c>
-      <c r="AC5" s="16">
-        <f t="shared" si="0"/>
-        <v>45592</v>
-      </c>
-      <c r="AD5" s="15">
-        <f t="shared" si="0"/>
-        <v>45593</v>
-      </c>
-      <c r="AE5" s="15">
-        <f t="shared" si="0"/>
-        <v>45594</v>
-      </c>
-      <c r="AF5" s="15">
-        <f t="shared" si="0"/>
-        <v>45595</v>
-      </c>
-      <c r="AG5" s="15">
-        <f t="shared" si="0"/>
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C13" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D18" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="22"/>
-      <c r="E19" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D20" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D21" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C24" s="21"/>
-      <c r="D24" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="21"/>
-      <c r="D25" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D27" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D28" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D29" s="22"/>
-      <c r="E29" s="23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D30" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C32" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C35" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D38" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{A00D83F5-B591-4B8C-A3D9-0A7E1F129DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C58A8E9A-7691-47F1-BE89-6BB5E9400D61}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1050" windowWidth="21600" windowHeight="13890" activeTab="1" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -3529,9 +3529,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3542,6 +3539,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5781,7 +5781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795CA75-2E57-4007-A1E6-AF0752BF2C5D}">
   <dimension ref="B2:B20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6444,258 +6444,258 @@
       <c r="B5" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="111">
         <v>1</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="112">
+      <c r="D5" s="112"/>
+      <c r="E5" s="111">
         <v>2</v>
       </c>
-      <c r="F5" s="113"/>
-      <c r="G5" s="112">
+      <c r="F5" s="112"/>
+      <c r="G5" s="111">
         <v>3</v>
       </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="112">
+      <c r="H5" s="112"/>
+      <c r="I5" s="111">
         <v>4</v>
       </c>
-      <c r="J5" s="113"/>
-      <c r="K5" s="114">
+      <c r="J5" s="112"/>
+      <c r="K5" s="113">
         <v>5</v>
       </c>
-      <c r="L5" s="115"/>
-      <c r="M5" s="114">
+      <c r="L5" s="114"/>
+      <c r="M5" s="113">
         <v>6</v>
       </c>
-      <c r="N5" s="115"/>
-      <c r="O5" s="112">
+      <c r="N5" s="114"/>
+      <c r="O5" s="111">
         <v>7</v>
       </c>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="112">
+      <c r="P5" s="112"/>
+      <c r="Q5" s="111">
         <v>8</v>
       </c>
-      <c r="R5" s="113"/>
-      <c r="S5" s="112">
+      <c r="R5" s="112"/>
+      <c r="S5" s="111">
         <v>9</v>
       </c>
-      <c r="T5" s="113"/>
-      <c r="U5" s="112">
+      <c r="T5" s="112"/>
+      <c r="U5" s="111">
         <v>10</v>
       </c>
-      <c r="V5" s="113"/>
-      <c r="W5" s="112">
+      <c r="V5" s="112"/>
+      <c r="W5" s="111">
         <v>11</v>
       </c>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="114">
+      <c r="X5" s="112"/>
+      <c r="Y5" s="113">
         <v>12</v>
       </c>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="114">
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="113">
         <v>13</v>
       </c>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="112">
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="111">
         <v>14</v>
       </c>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="112">
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="111">
         <v>15</v>
       </c>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="112">
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="111">
         <v>16</v>
       </c>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="112">
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="111">
         <v>17</v>
       </c>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="112">
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="111">
         <v>18</v>
       </c>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="114">
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="113">
         <v>19</v>
       </c>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="114">
+      <c r="AN5" s="114"/>
+      <c r="AO5" s="113">
         <v>20</v>
       </c>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="112">
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="111">
         <v>21</v>
       </c>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="112">
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="111">
         <v>22</v>
       </c>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="112">
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="111">
         <v>23</v>
       </c>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="112">
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="111">
         <v>24</v>
       </c>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="112">
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="111">
         <v>25</v>
       </c>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="114">
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="113">
         <v>26</v>
       </c>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="114">
+      <c r="BB5" s="114"/>
+      <c r="BC5" s="113">
         <v>27</v>
       </c>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="112">
+      <c r="BD5" s="114"/>
+      <c r="BE5" s="111">
         <v>28</v>
       </c>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="112">
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="111">
         <v>29</v>
       </c>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="112">
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="111">
         <v>30</v>
       </c>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="112">
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="111">
         <v>31</v>
       </c>
-      <c r="BL5" s="113"/>
+      <c r="BL5" s="112"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112" t="s">
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="112" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="113"/>
-      <c r="G6" s="112" t="s">
+      <c r="F6" s="112"/>
+      <c r="G6" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="112" t="s">
+      <c r="H6" s="112"/>
+      <c r="I6" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="114" t="s">
+      <c r="J6" s="112"/>
+      <c r="K6" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="115"/>
-      <c r="M6" s="114" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="115"/>
-      <c r="O6" s="112" t="s">
+      <c r="N6" s="114"/>
+      <c r="O6" s="111" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="112" t="s">
+      <c r="P6" s="112"/>
+      <c r="Q6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="113"/>
-      <c r="S6" s="112" t="s">
+      <c r="R6" s="112"/>
+      <c r="S6" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="T6" s="113"/>
-      <c r="U6" s="112" t="s">
+      <c r="T6" s="112"/>
+      <c r="U6" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="112" t="s">
+      <c r="V6" s="112"/>
+      <c r="W6" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="114" t="s">
+      <c r="X6" s="112"/>
+      <c r="Y6" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="114" t="s">
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="AB6" s="115"/>
-      <c r="AC6" s="112" t="s">
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="111" t="s">
         <v>261</v>
       </c>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="112" t="s">
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="112" t="s">
+      <c r="AF6" s="112"/>
+      <c r="AG6" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="112" t="s">
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="112" t="s">
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="114" t="s">
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="AN6" s="115"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="AP6" s="115"/>
-      <c r="AQ6" s="112" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="111" t="s">
         <v>261</v>
       </c>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="112" t="s">
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="113"/>
-      <c r="AU6" s="112" t="s">
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="112" t="s">
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="112" t="s">
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="114" t="s">
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="BB6" s="115"/>
-      <c r="BC6" s="114" t="s">
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="BD6" s="115"/>
-      <c r="BE6" s="112" t="s">
+      <c r="BD6" s="114"/>
+      <c r="BE6" s="111" t="s">
         <v>261</v>
       </c>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="112" t="s">
+      <c r="BF6" s="112"/>
+      <c r="BG6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="112" t="s">
+      <c r="BH6" s="112"/>
+      <c r="BI6" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="BJ6" s="113"/>
-      <c r="BK6" s="112" t="s">
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="BL6" s="113"/>
+      <c r="BL6" s="112"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A7" s="110"/>
@@ -7227,54 +7227,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -7291,6 +7243,54 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17064,7 +17064,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -17613,7 +17613,7 @@
     <row r="10" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="108">
         <f ca="1">RANDBETWEEN(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="90"/>
       <c r="D10" s="91">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{A00D83F5-B591-4B8C-A3D9-0A7E1F129DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C58A8E9A-7691-47F1-BE89-6BB5E9400D61}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{A00D83F5-B591-4B8C-A3D9-0A7E1F129DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC9916A-AF00-4AB4-9F7C-386AD76F5CF1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="3135" yWindow="1830" windowWidth="23250" windowHeight="13395" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="425">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1641,13 +1641,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>演習7：</t>
-    <rPh sb="0" eb="2">
-      <t>エンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>女性のみの身長・体重の平均値をSUMIF関数、COUNTIF関数を使わずに算出しましょう</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
@@ -2573,46 +2566,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レコード数と合計を別々に算出して、それを改めて参照するのは面倒ですよね？</t>
-    <rPh sb="4" eb="5">
+    <t>わざわざ合計とレコード数を別に出してから算出するのは面倒ですよね</t>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>スウ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ベツベツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="13" eb="14">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>サンシュツ</t>
     </rPh>
-    <rPh sb="20" eb="21">
-      <t>アラタ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="26" eb="28">
       <t>メンドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SUM関数とCOUNT関数をひとつの式にして、平均値を算出するように数式を変更しましょう</t>
-    <rPh sb="3" eb="5">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>スウシキ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3529,6 +3500,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3539,9 +3513,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3684,13 +3655,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>712518</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>21272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3734,13 +3705,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>712518</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>21272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3784,7 +3755,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="372475" cy="346075"/>
@@ -5842,7 +5813,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6444,258 +6415,258 @@
       <c r="B5" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="112">
         <v>1</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="111">
+      <c r="D5" s="113"/>
+      <c r="E5" s="112">
         <v>2</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="111">
+      <c r="F5" s="113"/>
+      <c r="G5" s="112">
         <v>3</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="111">
+      <c r="H5" s="113"/>
+      <c r="I5" s="112">
         <v>4</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113">
+      <c r="J5" s="113"/>
+      <c r="K5" s="114">
         <v>5</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="113">
+      <c r="L5" s="115"/>
+      <c r="M5" s="114">
         <v>6</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="111">
+      <c r="N5" s="115"/>
+      <c r="O5" s="112">
         <v>7</v>
       </c>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="111">
+      <c r="P5" s="113"/>
+      <c r="Q5" s="112">
         <v>8</v>
       </c>
-      <c r="R5" s="112"/>
-      <c r="S5" s="111">
+      <c r="R5" s="113"/>
+      <c r="S5" s="112">
         <v>9</v>
       </c>
-      <c r="T5" s="112"/>
-      <c r="U5" s="111">
+      <c r="T5" s="113"/>
+      <c r="U5" s="112">
         <v>10</v>
       </c>
-      <c r="V5" s="112"/>
-      <c r="W5" s="111">
+      <c r="V5" s="113"/>
+      <c r="W5" s="112">
         <v>11</v>
       </c>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="113">
+      <c r="X5" s="113"/>
+      <c r="Y5" s="114">
         <v>12</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="113">
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="114">
         <v>13</v>
       </c>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="111">
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="112">
         <v>14</v>
       </c>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="111">
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="112">
         <v>15</v>
       </c>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="111">
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="112">
         <v>16</v>
       </c>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="111">
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="112">
         <v>17</v>
       </c>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="111">
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="112">
         <v>18</v>
       </c>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="113">
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="114">
         <v>19</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="113">
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="114">
         <v>20</v>
       </c>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="111">
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="112">
         <v>21</v>
       </c>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="111">
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="112">
         <v>22</v>
       </c>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="111">
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="112">
         <v>23</v>
       </c>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="111">
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="112">
         <v>24</v>
       </c>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="111">
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="112">
         <v>25</v>
       </c>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="113">
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="114">
         <v>26</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="113">
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="114">
         <v>27</v>
       </c>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="111">
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="112">
         <v>28</v>
       </c>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="111">
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="112">
         <v>29</v>
       </c>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="111">
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="112">
         <v>30</v>
       </c>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="111">
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="112">
         <v>31</v>
       </c>
-      <c r="BL5" s="112"/>
+      <c r="BL5" s="113"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="111" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="113"/>
+      <c r="E6" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="111" t="s">
+      <c r="F6" s="113"/>
+      <c r="G6" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="111" t="s">
+      <c r="H6" s="113"/>
+      <c r="I6" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113" t="s">
+      <c r="J6" s="113"/>
+      <c r="K6" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="113" t="s">
+      <c r="L6" s="115"/>
+      <c r="M6" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="114"/>
-      <c r="O6" s="111" t="s">
+      <c r="N6" s="115"/>
+      <c r="O6" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="111" t="s">
+      <c r="P6" s="113"/>
+      <c r="Q6" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="112"/>
-      <c r="S6" s="111" t="s">
+      <c r="R6" s="113"/>
+      <c r="S6" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="T6" s="112"/>
-      <c r="U6" s="111" t="s">
+      <c r="T6" s="113"/>
+      <c r="U6" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="V6" s="112"/>
-      <c r="W6" s="111" t="s">
+      <c r="V6" s="113"/>
+      <c r="W6" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="113" t="s">
+      <c r="X6" s="113"/>
+      <c r="Y6" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="Z6" s="114"/>
-      <c r="AA6" s="113" t="s">
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="111" t="s">
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="111" t="s">
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="111" t="s">
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="111" t="s">
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="111" t="s">
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="AL6" s="112"/>
-      <c r="AM6" s="113" t="s">
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="113" t="s">
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="111" t="s">
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="AR6" s="112"/>
-      <c r="AS6" s="111" t="s">
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="112"/>
-      <c r="AU6" s="111" t="s">
+      <c r="AT6" s="113"/>
+      <c r="AU6" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="AV6" s="112"/>
-      <c r="AW6" s="111" t="s">
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="AX6" s="112"/>
-      <c r="AY6" s="111" t="s">
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="AZ6" s="112"/>
-      <c r="BA6" s="113" t="s">
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="113" t="s">
+      <c r="BB6" s="115"/>
+      <c r="BC6" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="BD6" s="114"/>
-      <c r="BE6" s="111" t="s">
+      <c r="BD6" s="115"/>
+      <c r="BE6" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="BF6" s="112"/>
-      <c r="BG6" s="111" t="s">
+      <c r="BF6" s="113"/>
+      <c r="BG6" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="BH6" s="112"/>
-      <c r="BI6" s="111" t="s">
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="111" t="s">
+      <c r="BJ6" s="113"/>
+      <c r="BK6" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="BL6" s="112"/>
+      <c r="BL6" s="113"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A7" s="110"/>
@@ -7227,6 +7198,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -7243,54 +7262,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7314,15 +7285,15 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C3" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -7331,10 +7302,10 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C4" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>309</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -7349,10 +7320,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
         <v>310</v>
-      </c>
-      <c r="E6" t="s">
-        <v>311</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -7374,10 +7345,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" t="s">
         <v>312</v>
-      </c>
-      <c r="E9" t="s">
-        <v>313</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -7399,10 +7370,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" t="s">
         <v>314</v>
-      </c>
-      <c r="E12" t="s">
-        <v>315</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7424,10 +7395,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" t="s">
         <v>316</v>
-      </c>
-      <c r="E15" t="s">
-        <v>317</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -7449,10 +7420,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" t="s">
         <v>318</v>
-      </c>
-      <c r="E18" t="s">
-        <v>319</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -7474,15 +7445,15 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" t="s">
         <v>321</v>
-      </c>
-      <c r="D23" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -7495,10 +7466,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
+        <v>322</v>
+      </c>
+      <c r="E26" t="s">
         <v>323</v>
-      </c>
-      <c r="E26" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
@@ -7506,10 +7477,10 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
+        <v>324</v>
+      </c>
+      <c r="E29" t="s">
         <v>325</v>
-      </c>
-      <c r="E29" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
@@ -7517,13 +7488,13 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="21"/>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.4">
@@ -7533,10 +7504,10 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E35" t="s">
         <v>329</v>
-      </c>
-      <c r="E35" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
@@ -7544,20 +7515,20 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C38" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
+        <v>332</v>
+      </c>
+      <c r="E39" t="s">
         <v>333</v>
-      </c>
-      <c r="E39" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.4">
@@ -7565,48 +7536,48 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" s="41" t="s">
         <v>335</v>
-      </c>
-      <c r="M42" s="41" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C43" s="42"/>
       <c r="D43" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="E43" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="F43" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="G43" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="G43" s="44" t="s">
+      <c r="H43" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="H43" s="45" t="s">
+      <c r="I43" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="J43" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="J43" s="47" t="s">
+      <c r="K43" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="K43" s="48" t="s">
+      <c r="L43" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="L43" s="43" t="s">
+      <c r="M43" s="43" t="s">
         <v>345</v>
-      </c>
-      <c r="M43" s="43" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C44" s="49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D44" s="50">
         <v>371920</v>
@@ -7641,7 +7612,7 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C45" s="49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D45" s="50">
         <v>384654</v>
@@ -7676,7 +7647,7 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C46" s="49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D46" s="50">
         <v>117884</v>
@@ -7711,7 +7682,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C47" s="49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D47" s="50">
         <v>72458</v>
@@ -7746,7 +7717,7 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C48" s="49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D48" s="50">
         <v>153834</v>
@@ -7781,7 +7752,7 @@
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C49" s="49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D49" s="50">
         <v>422330</v>
@@ -7816,7 +7787,7 @@
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C50" s="49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D50" s="50">
         <v>187990</v>
@@ -7851,7 +7822,7 @@
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C51" s="49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D51" s="50">
         <v>169046</v>
@@ -7886,27 +7857,27 @@
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
+        <v>354</v>
+      </c>
+      <c r="E53" t="s">
         <v>355</v>
-      </c>
-      <c r="E53" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.4">
       <c r="E54" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F54" s="33"/>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.4">
       <c r="E55" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F55" s="33"/>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.4">
       <c r="E56" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F56" s="56"/>
     </row>
@@ -7956,13 +7927,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>303</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -17029,7 +17000,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -17037,7 +17008,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="57" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -17062,7 +17033,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574642DF-B6FC-47D7-8F4E-74F8116D6D0D}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17307,12 +17278,13 @@
         <v>244</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="21"/>
       <c r="C27" s="21" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
@@ -17327,91 +17299,72 @@
       </c>
       <c r="E30" s="9"/>
     </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D31" s="22"/>
+      <c r="E31" s="1"/>
+    </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="21" t="s">
+      <c r="C32" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D34" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D35" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" s="9"/>
+      <c r="C34" s="21" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D36" s="22"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C37" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="1"/>
+      <c r="C36" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D38" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="21" t="s">
+      <c r="D39" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C41" s="23" t="s">
-        <v>292</v>
+      <c r="C41" s="21" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D43" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D44" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E44" s="9"/>
+      <c r="C43" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D45" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C48" s="23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D50" s="22" t="s">
+      <c r="D46" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D51" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="E51" s="9"/>
+      <c r="E46" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17435,10 +17388,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -17565,7 +17518,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="84" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -17573,7 +17526,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D3" s="85">
         <v>60</v>
@@ -17585,7 +17538,7 @@
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="84" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -17596,18 +17549,18 @@
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="89" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="89" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E9" s="89"/>
       <c r="F9" s="89" t="s">
+        <v>410</v>
+      </c>
+      <c r="G9" s="89" t="s">
         <v>411</v>
-      </c>
-      <c r="G9" s="89" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -17621,10 +17574,10 @@
       </c>
       <c r="E10" s="90"/>
       <c r="F10" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="92" t="s">
         <v>413</v>
-      </c>
-      <c r="G10" s="92" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -17644,13 +17597,13 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="84" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C13" s="84"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C14" s="93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -17659,10 +17612,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="95" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="96" t="s">
         <v>362</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>363</v>
       </c>
       <c r="F16" s="97"/>
     </row>
@@ -17786,7 +17739,7 @@
     </row>
     <row r="32" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="84" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -17794,10 +17747,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="95" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" s="96" t="s">
         <v>362</v>
-      </c>
-      <c r="D33" s="96" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -17808,7 +17761,7 @@
         <v>67</v>
       </c>
       <c r="D34" s="100" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
@@ -17819,7 +17772,7 @@
         <v>99</v>
       </c>
       <c r="D35" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
@@ -17830,7 +17783,7 @@
         <v>75</v>
       </c>
       <c r="D36" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
@@ -17841,7 +17794,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
@@ -17852,7 +17805,7 @@
         <v>55</v>
       </c>
       <c r="D38" s="103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
@@ -17863,7 +17816,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
@@ -17874,7 +17827,7 @@
         <v>67</v>
       </c>
       <c r="D40" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
@@ -17885,7 +17838,7 @@
         <v>45</v>
       </c>
       <c r="D41" s="103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
@@ -17896,7 +17849,7 @@
         <v>70</v>
       </c>
       <c r="D42" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.4">
@@ -17907,7 +17860,7 @@
         <v>100</v>
       </c>
       <c r="D43" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.4">
@@ -17918,7 +17871,7 @@
         <v>66</v>
       </c>
       <c r="D44" s="103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.4">
@@ -17929,7 +17882,7 @@
         <v>48</v>
       </c>
       <c r="D45" s="103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -17940,7 +17893,7 @@
         <v>96</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -17966,13 +17919,13 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="21"/>
       <c r="C3" s="72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -17981,20 +17934,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>363</v>
-      </c>
       <c r="G5" s="82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H5" s="58"/>
       <c r="J5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -18009,13 +17962,13 @@
       </c>
       <c r="E6" s="60"/>
       <c r="G6" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H6" s="81">
         <v>60</v>
       </c>
       <c r="J6" s="80" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
@@ -18030,13 +17983,13 @@
       </c>
       <c r="E7" s="62"/>
       <c r="G7" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H7" s="81">
         <v>60</v>
       </c>
       <c r="J7" s="80" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -18173,7 +18126,7 @@
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -18181,13 +18134,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>366</v>
+      </c>
+      <c r="E22" s="71" t="s">
         <v>362</v>
-      </c>
-      <c r="D22" s="76" t="s">
-        <v>367</v>
-      </c>
-      <c r="E22" s="71" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -18201,7 +18154,7 @@
         <v>79</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
@@ -18215,7 +18168,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -18229,7 +18182,7 @@
         <v>78</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
@@ -18243,7 +18196,7 @@
         <v>58</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
@@ -18257,7 +18210,7 @@
         <v>50</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
@@ -18271,7 +18224,7 @@
         <v>70</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
@@ -18285,7 +18238,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
@@ -18299,7 +18252,7 @@
         <v>44</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
@@ -18313,7 +18266,7 @@
         <v>60</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
@@ -18327,7 +18280,7 @@
         <v>80</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
@@ -18341,7 +18294,7 @@
         <v>40</v>
       </c>
       <c r="E33" s="62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
@@ -18355,7 +18308,7 @@
         <v>35</v>
       </c>
       <c r="E34" s="62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -18369,7 +18322,7 @@
         <v>85</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -18399,92 +18352,92 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="65"/>
       <c r="B2" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="D2" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="E2" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="F2" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="G2" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="H2" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="I2" s="65" t="s">
         <v>375</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="J2" s="65" t="s">
         <v>376</v>
-      </c>
-      <c r="J2" s="65" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="C3" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="D3" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="F3" s="65" t="s">
         <v>382</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="G3" s="65" t="s">
         <v>383</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="H3" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="I3" s="65" t="s">
         <v>385</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="J3" s="65" t="s">
         <v>386</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="C4" s="65" t="s">
         <v>389</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="D4" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="65" t="s">
+      <c r="F4" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="G4" s="65" t="s">
         <v>392</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>393</v>
       </c>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
@@ -18492,103 +18445,103 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="E5" s="65" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="G5" s="65" t="s">
+      <c r="H5" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="I5" s="65" t="s">
         <v>397</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>398</v>
       </c>
       <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>400</v>
-      </c>
       <c r="C6" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="E6" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>387</v>
-      </c>
       <c r="G6" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="D7" s="65" t="s">
+      <c r="E7" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="H7" s="65" t="s">
         <v>402</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>395</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>391</v>
-      </c>
-      <c r="H7" s="65" t="s">
-        <v>403</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="67" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="D12" s="67" t="s">
         <v>405</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{A00D83F5-B591-4B8C-A3D9-0A7E1F129DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7787A86-9BAA-4081-AC1E-BD8357CFD3D1}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="180" windowWidth="24210" windowHeight="14535" firstSheet="1" activeTab="9" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24210" windowHeight="14535" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -3524,6 +3524,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3534,9 +3537,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5776,7 +5776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795CA75-2E57-4007-A1E6-AF0752BF2C5D}">
   <dimension ref="B2:B20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5850,7 +5850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0051BF1-256B-4B57-B5C2-7CB0BABD75BC}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6439,258 +6439,258 @@
       <c r="B5" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="112">
         <v>1</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="111">
+      <c r="D5" s="113"/>
+      <c r="E5" s="112">
         <v>2</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="111">
+      <c r="F5" s="113"/>
+      <c r="G5" s="112">
         <v>3</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="111">
+      <c r="H5" s="113"/>
+      <c r="I5" s="112">
         <v>4</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113">
+      <c r="J5" s="113"/>
+      <c r="K5" s="114">
         <v>5</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="113">
+      <c r="L5" s="115"/>
+      <c r="M5" s="114">
         <v>6</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="111">
+      <c r="N5" s="115"/>
+      <c r="O5" s="112">
         <v>7</v>
       </c>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="111">
+      <c r="P5" s="113"/>
+      <c r="Q5" s="112">
         <v>8</v>
       </c>
-      <c r="R5" s="112"/>
-      <c r="S5" s="111">
+      <c r="R5" s="113"/>
+      <c r="S5" s="112">
         <v>9</v>
       </c>
-      <c r="T5" s="112"/>
-      <c r="U5" s="111">
+      <c r="T5" s="113"/>
+      <c r="U5" s="112">
         <v>10</v>
       </c>
-      <c r="V5" s="112"/>
-      <c r="W5" s="111">
+      <c r="V5" s="113"/>
+      <c r="W5" s="112">
         <v>11</v>
       </c>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="113">
+      <c r="X5" s="113"/>
+      <c r="Y5" s="114">
         <v>12</v>
       </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="113">
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="114">
         <v>13</v>
       </c>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="111">
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="112">
         <v>14</v>
       </c>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="111">
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="112">
         <v>15</v>
       </c>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="111">
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="112">
         <v>16</v>
       </c>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="111">
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="112">
         <v>17</v>
       </c>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="111">
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="112">
         <v>18</v>
       </c>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="113">
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="114">
         <v>19</v>
       </c>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="113">
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="114">
         <v>20</v>
       </c>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="111">
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="112">
         <v>21</v>
       </c>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="111">
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="112">
         <v>22</v>
       </c>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="111">
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="112">
         <v>23</v>
       </c>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="111">
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="112">
         <v>24</v>
       </c>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="111">
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="112">
         <v>25</v>
       </c>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="113">
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="114">
         <v>26</v>
       </c>
-      <c r="BB5" s="114"/>
-      <c r="BC5" s="113">
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="114">
         <v>27</v>
       </c>
-      <c r="BD5" s="114"/>
-      <c r="BE5" s="111">
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="112">
         <v>28</v>
       </c>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="111">
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="112">
         <v>29</v>
       </c>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="111">
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="112">
         <v>30</v>
       </c>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="111">
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="112">
         <v>31</v>
       </c>
-      <c r="BL5" s="112"/>
+      <c r="BL5" s="113"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="111" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="111" t="s">
+      <c r="D6" s="113"/>
+      <c r="E6" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="111" t="s">
+      <c r="F6" s="113"/>
+      <c r="G6" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="111" t="s">
+      <c r="H6" s="113"/>
+      <c r="I6" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113" t="s">
+      <c r="J6" s="113"/>
+      <c r="K6" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="113" t="s">
+      <c r="L6" s="115"/>
+      <c r="M6" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="N6" s="114"/>
-      <c r="O6" s="111" t="s">
+      <c r="N6" s="115"/>
+      <c r="O6" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="111" t="s">
+      <c r="P6" s="113"/>
+      <c r="Q6" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="R6" s="112"/>
-      <c r="S6" s="111" t="s">
+      <c r="R6" s="113"/>
+      <c r="S6" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="T6" s="112"/>
-      <c r="U6" s="111" t="s">
+      <c r="T6" s="113"/>
+      <c r="U6" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="V6" s="112"/>
-      <c r="W6" s="111" t="s">
+      <c r="V6" s="113"/>
+      <c r="W6" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="113" t="s">
+      <c r="X6" s="113"/>
+      <c r="Y6" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="Z6" s="114"/>
-      <c r="AA6" s="113" t="s">
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="111" t="s">
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="111" t="s">
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="111" t="s">
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="111" t="s">
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="111" t="s">
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="AL6" s="112"/>
-      <c r="AM6" s="113" t="s">
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="113" t="s">
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="111" t="s">
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="AR6" s="112"/>
-      <c r="AS6" s="111" t="s">
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="AT6" s="112"/>
-      <c r="AU6" s="111" t="s">
+      <c r="AT6" s="113"/>
+      <c r="AU6" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="AV6" s="112"/>
-      <c r="AW6" s="111" t="s">
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="AX6" s="112"/>
-      <c r="AY6" s="111" t="s">
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="AZ6" s="112"/>
-      <c r="BA6" s="113" t="s">
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="113" t="s">
+      <c r="BB6" s="115"/>
+      <c r="BC6" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="BD6" s="114"/>
-      <c r="BE6" s="111" t="s">
+      <c r="BD6" s="115"/>
+      <c r="BE6" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="BF6" s="112"/>
-      <c r="BG6" s="111" t="s">
+      <c r="BF6" s="113"/>
+      <c r="BG6" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="BH6" s="112"/>
-      <c r="BI6" s="111" t="s">
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="111" t="s">
+      <c r="BJ6" s="113"/>
+      <c r="BK6" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="BL6" s="112"/>
+      <c r="BL6" s="113"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A7" s="110"/>
@@ -7222,6 +7222,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -7238,54 +7286,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{A00D83F5-B591-4B8C-A3D9-0A7E1F129DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7787A86-9BAA-4081-AC1E-BD8357CFD3D1}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="13_ncr:1_{A00D83F5-B591-4B8C-A3D9-0A7E1F129DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8D9450B-4935-42F7-9027-8D3829EE014C}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24210" windowHeight="14535" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="1710" yWindow="810" windowWidth="23670" windowHeight="13485" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -3524,9 +3524,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3537,6 +3534,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5188,13 +5188,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180388</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5238,13 +5238,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>183563</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5848,7 +5848,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0051BF1-256B-4B57-B5C2-7CB0BABD75BC}">
-  <dimension ref="A1:AG38"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6269,7 +6269,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D17" s="22" t="s">
         <v>230</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D18" s="22" t="s">
         <v>230</v>
       </c>
@@ -6285,13 +6285,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D19" s="22"/>
       <c r="E19" s="23" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D20" s="22" t="s">
         <v>230</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D21" s="22" t="s">
         <v>230</v>
       </c>
@@ -6307,89 +6307,89 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C23" s="21" t="s">
         <v>235</v>
       </c>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C24" s="21"/>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D26" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C29" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C30" s="21"/>
+      <c r="D30" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="21"/>
-      <c r="D25" s="24" t="s">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C31" s="21"/>
+      <c r="D31" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D27" s="22" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D33" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E33" s="23" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D28" s="22" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D34" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E34" s="23" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D29" s="22"/>
-      <c r="F29" s="23" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D35" s="22"/>
+      <c r="F35" s="23" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D30" s="22" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D36" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E36" s="23" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C32" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C38" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C35" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D38" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>242</v>
-      </c>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6439,258 +6439,258 @@
       <c r="B5" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="111">
         <v>1</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="112">
+      <c r="D5" s="112"/>
+      <c r="E5" s="111">
         <v>2</v>
       </c>
-      <c r="F5" s="113"/>
-      <c r="G5" s="112">
+      <c r="F5" s="112"/>
+      <c r="G5" s="111">
         <v>3</v>
       </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="112">
+      <c r="H5" s="112"/>
+      <c r="I5" s="111">
         <v>4</v>
       </c>
-      <c r="J5" s="113"/>
-      <c r="K5" s="114">
+      <c r="J5" s="112"/>
+      <c r="K5" s="113">
         <v>5</v>
       </c>
-      <c r="L5" s="115"/>
-      <c r="M5" s="114">
+      <c r="L5" s="114"/>
+      <c r="M5" s="113">
         <v>6</v>
       </c>
-      <c r="N5" s="115"/>
-      <c r="O5" s="112">
+      <c r="N5" s="114"/>
+      <c r="O5" s="111">
         <v>7</v>
       </c>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="112">
+      <c r="P5" s="112"/>
+      <c r="Q5" s="111">
         <v>8</v>
       </c>
-      <c r="R5" s="113"/>
-      <c r="S5" s="112">
+      <c r="R5" s="112"/>
+      <c r="S5" s="111">
         <v>9</v>
       </c>
-      <c r="T5" s="113"/>
-      <c r="U5" s="112">
+      <c r="T5" s="112"/>
+      <c r="U5" s="111">
         <v>10</v>
       </c>
-      <c r="V5" s="113"/>
-      <c r="W5" s="112">
+      <c r="V5" s="112"/>
+      <c r="W5" s="111">
         <v>11</v>
       </c>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="114">
+      <c r="X5" s="112"/>
+      <c r="Y5" s="113">
         <v>12</v>
       </c>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="114">
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="113">
         <v>13</v>
       </c>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="112">
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="111">
         <v>14</v>
       </c>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="112">
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="111">
         <v>15</v>
       </c>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="112">
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="111">
         <v>16</v>
       </c>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="112">
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="111">
         <v>17</v>
       </c>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="112">
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="111">
         <v>18</v>
       </c>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="114">
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="113">
         <v>19</v>
       </c>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="114">
+      <c r="AN5" s="114"/>
+      <c r="AO5" s="113">
         <v>20</v>
       </c>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="112">
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="111">
         <v>21</v>
       </c>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="112">
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="111">
         <v>22</v>
       </c>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="112">
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="111">
         <v>23</v>
       </c>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="112">
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="111">
         <v>24</v>
       </c>
-      <c r="AX5" s="113"/>
-      <c r="AY5" s="112">
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="111">
         <v>25</v>
       </c>
-      <c r="AZ5" s="113"/>
-      <c r="BA5" s="114">
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="113">
         <v>26</v>
       </c>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="114">
+      <c r="BB5" s="114"/>
+      <c r="BC5" s="113">
         <v>27</v>
       </c>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="112">
+      <c r="BD5" s="114"/>
+      <c r="BE5" s="111">
         <v>28</v>
       </c>
-      <c r="BF5" s="113"/>
-      <c r="BG5" s="112">
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="111">
         <v>29</v>
       </c>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="112">
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="111">
         <v>30</v>
       </c>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="112">
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="111">
         <v>31</v>
       </c>
-      <c r="BL5" s="113"/>
+      <c r="BL5" s="112"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112" t="s">
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="112" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="113"/>
-      <c r="G6" s="112" t="s">
+      <c r="F6" s="112"/>
+      <c r="G6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="112" t="s">
+      <c r="H6" s="112"/>
+      <c r="I6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="114" t="s">
+      <c r="J6" s="112"/>
+      <c r="K6" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="115"/>
-      <c r="M6" s="114" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="N6" s="115"/>
-      <c r="O6" s="112" t="s">
+      <c r="N6" s="114"/>
+      <c r="O6" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="112" t="s">
+      <c r="P6" s="112"/>
+      <c r="Q6" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="R6" s="113"/>
-      <c r="S6" s="112" t="s">
+      <c r="R6" s="112"/>
+      <c r="S6" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="T6" s="113"/>
-      <c r="U6" s="112" t="s">
+      <c r="T6" s="112"/>
+      <c r="U6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="112" t="s">
+      <c r="V6" s="112"/>
+      <c r="W6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="114" t="s">
+      <c r="X6" s="112"/>
+      <c r="Y6" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="114" t="s">
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="AB6" s="115"/>
-      <c r="AC6" s="112" t="s">
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="112" t="s">
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="112" t="s">
+      <c r="AF6" s="112"/>
+      <c r="AG6" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="112" t="s">
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="112" t="s">
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="114" t="s">
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="AN6" s="115"/>
-      <c r="AO6" s="114" t="s">
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="AP6" s="115"/>
-      <c r="AQ6" s="112" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="112" t="s">
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="AT6" s="113"/>
-      <c r="AU6" s="112" t="s">
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="112" t="s">
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="112" t="s">
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="114" t="s">
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="BB6" s="115"/>
-      <c r="BC6" s="114" t="s">
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="BD6" s="115"/>
-      <c r="BE6" s="112" t="s">
+      <c r="BD6" s="114"/>
+      <c r="BE6" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="112" t="s">
+      <c r="BF6" s="112"/>
+      <c r="BG6" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="112" t="s">
+      <c r="BH6" s="112"/>
+      <c r="BI6" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="BJ6" s="113"/>
-      <c r="BK6" s="112" t="s">
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="BL6" s="113"/>
+      <c r="BL6" s="112"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A7" s="110"/>
@@ -7222,54 +7222,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -7286,6 +7238,54 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB2BB00-214A-44E3-B210-CA6897107FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7932D6A1-FB29-4A6A-B255-686BB4807A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="2955" yWindow="555" windowWidth="24255" windowHeight="14235" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -3505,10 +3505,19 @@
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3522,15 +3531,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7755,10 +7755,10 @@
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="15">
@@ -7887,8 +7887,8 @@
       </c>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="17" t="s">
         <v>217</v>
       </c>
@@ -8310,268 +8310,268 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="111">
         <v>1</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="108">
+      <c r="D5" s="112"/>
+      <c r="E5" s="111">
         <v>2</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="108">
+      <c r="F5" s="112"/>
+      <c r="G5" s="111">
         <v>3</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="108">
+      <c r="H5" s="112"/>
+      <c r="I5" s="111">
         <v>4</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="110">
+      <c r="J5" s="112"/>
+      <c r="K5" s="113">
         <v>5</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="110">
+      <c r="L5" s="114"/>
+      <c r="M5" s="113">
         <v>6</v>
       </c>
-      <c r="N5" s="111"/>
-      <c r="O5" s="108">
+      <c r="N5" s="114"/>
+      <c r="O5" s="111">
         <v>7</v>
       </c>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="108">
+      <c r="P5" s="112"/>
+      <c r="Q5" s="111">
         <v>8</v>
       </c>
-      <c r="R5" s="109"/>
-      <c r="S5" s="108">
+      <c r="R5" s="112"/>
+      <c r="S5" s="111">
         <v>9</v>
       </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="108">
+      <c r="T5" s="112"/>
+      <c r="U5" s="111">
         <v>10</v>
       </c>
-      <c r="V5" s="109"/>
-      <c r="W5" s="108">
+      <c r="V5" s="112"/>
+      <c r="W5" s="111">
         <v>11</v>
       </c>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="110">
+      <c r="X5" s="112"/>
+      <c r="Y5" s="113">
         <v>12</v>
       </c>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="110">
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="113">
         <v>13</v>
       </c>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="108">
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="111">
         <v>14</v>
       </c>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="108">
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="111">
         <v>15</v>
       </c>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="108">
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="111">
         <v>16</v>
       </c>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="108">
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="111">
         <v>17</v>
       </c>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="108">
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="111">
         <v>18</v>
       </c>
-      <c r="AL5" s="109"/>
-      <c r="AM5" s="110">
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="113">
         <v>19</v>
       </c>
-      <c r="AN5" s="111"/>
-      <c r="AO5" s="110">
+      <c r="AN5" s="114"/>
+      <c r="AO5" s="113">
         <v>20</v>
       </c>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="108">
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="111">
         <v>21</v>
       </c>
-      <c r="AR5" s="109"/>
-      <c r="AS5" s="108">
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="111">
         <v>22</v>
       </c>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="108">
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="111">
         <v>23</v>
       </c>
-      <c r="AV5" s="109"/>
-      <c r="AW5" s="108">
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="111">
         <v>24</v>
       </c>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="108">
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="111">
         <v>25</v>
       </c>
-      <c r="AZ5" s="109"/>
-      <c r="BA5" s="110">
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="113">
         <v>26</v>
       </c>
-      <c r="BB5" s="111"/>
-      <c r="BC5" s="110">
+      <c r="BB5" s="114"/>
+      <c r="BC5" s="113">
         <v>27</v>
       </c>
-      <c r="BD5" s="111"/>
-      <c r="BE5" s="108">
+      <c r="BD5" s="114"/>
+      <c r="BE5" s="111">
         <v>28</v>
       </c>
-      <c r="BF5" s="109"/>
-      <c r="BG5" s="108">
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="111">
         <v>29</v>
       </c>
-      <c r="BH5" s="109"/>
-      <c r="BI5" s="108">
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="111">
         <v>30</v>
       </c>
-      <c r="BJ5" s="109"/>
-      <c r="BK5" s="108">
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="111">
         <v>31</v>
       </c>
-      <c r="BL5" s="109"/>
+      <c r="BL5" s="112"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="108" t="s">
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="108" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="108" t="s">
+      <c r="F6" s="112"/>
+      <c r="G6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="H6" s="109"/>
-      <c r="I6" s="108" t="s">
+      <c r="H6" s="112"/>
+      <c r="I6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="110" t="s">
+      <c r="J6" s="112"/>
+      <c r="K6" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="111"/>
-      <c r="M6" s="110" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="N6" s="111"/>
-      <c r="O6" s="108" t="s">
+      <c r="N6" s="114"/>
+      <c r="O6" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="108" t="s">
+      <c r="P6" s="112"/>
+      <c r="Q6" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="R6" s="109"/>
-      <c r="S6" s="108" t="s">
+      <c r="R6" s="112"/>
+      <c r="S6" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="T6" s="109"/>
-      <c r="U6" s="108" t="s">
+      <c r="T6" s="112"/>
+      <c r="U6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="V6" s="109"/>
-      <c r="W6" s="108" t="s">
+      <c r="V6" s="112"/>
+      <c r="W6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="110" t="s">
+      <c r="X6" s="112"/>
+      <c r="Y6" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="110" t="s">
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="108" t="s">
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="108" t="s">
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="108" t="s">
+      <c r="AF6" s="112"/>
+      <c r="AG6" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="108" t="s">
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="AJ6" s="109"/>
-      <c r="AK6" s="108" t="s">
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="AL6" s="109"/>
-      <c r="AM6" s="110" t="s">
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="110" t="s">
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="108" t="s">
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="AR6" s="109"/>
-      <c r="AS6" s="108" t="s">
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="AT6" s="109"/>
-      <c r="AU6" s="108" t="s">
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="AV6" s="109"/>
-      <c r="AW6" s="108" t="s">
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="AX6" s="109"/>
-      <c r="AY6" s="108" t="s">
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="AZ6" s="109"/>
-      <c r="BA6" s="110" t="s">
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="110" t="s">
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="BD6" s="111"/>
-      <c r="BE6" s="108" t="s">
+      <c r="BD6" s="114"/>
+      <c r="BE6" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="BF6" s="109"/>
-      <c r="BG6" s="108" t="s">
+      <c r="BF6" s="112"/>
+      <c r="BG6" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="BH6" s="109"/>
-      <c r="BI6" s="108" t="s">
+      <c r="BH6" s="112"/>
+      <c r="BI6" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="108" t="s">
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="BL6" s="109"/>
+      <c r="BL6" s="112"/>
     </row>
     <row r="7" spans="1:64">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="17" t="s">
         <v>253</v>
       </c>
@@ -9099,6 +9099,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -9115,54 +9163,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19070,7 +19070,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -19315,28 +19315,28 @@
     </row>
     <row r="27" spans="2:5">
       <c r="D27" s="22"/>
-      <c r="E27" s="113"/>
+      <c r="E27" s="106"/>
     </row>
     <row r="28" spans="2:5">
       <c r="C28" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="113"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="106"/>
     </row>
     <row r="29" spans="2:5">
       <c r="C29" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="113"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="106"/>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="21"/>
       <c r="D30" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="E30" s="113"/>
+      <c r="E30" s="106"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="21" t="s">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{DCBAECE5-60DB-445C-9E25-5C9685A3BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFE3D746-291B-4130-988C-6EBB6F10D325}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{DCBAECE5-60DB-445C-9E25-5C9685A3BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DFC93EF-48FB-40CF-8857-57C776EE78F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26430" windowHeight="14775" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -2770,6 +2770,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2782,10 +2785,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2805,8 +2805,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FF0066FF"/>
-      <color rgb="FFCCFFFF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -13442,7 +13442,7 @@
         <v>94.900001525878906</v>
       </c>
       <c r="I4" s="110"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="110"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5">
@@ -13470,7 +13470,7 @@
         <v>49.900001525878906</v>
       </c>
       <c r="I5" s="110"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -13498,7 +13498,7 @@
         <v>92.400001525878906</v>
       </c>
       <c r="I6" s="110"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="110"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -13526,7 +13526,7 @@
         <v>58.200000762939453</v>
       </c>
       <c r="I7" s="110"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="110"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -13554,7 +13554,7 @@
         <v>53.5</v>
       </c>
       <c r="I8" s="110"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="110"/>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="20" t="s">
@@ -15225,258 +15225,258 @@
       <c r="B5" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="106">
         <v>1</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="105">
+      <c r="D5" s="107"/>
+      <c r="E5" s="106">
         <v>2</v>
       </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="105">
+      <c r="F5" s="107"/>
+      <c r="G5" s="106">
         <v>3</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="105">
+      <c r="H5" s="107"/>
+      <c r="I5" s="106">
         <v>4</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107">
+      <c r="J5" s="107"/>
+      <c r="K5" s="108">
         <v>5</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="107">
+      <c r="L5" s="109"/>
+      <c r="M5" s="108">
         <v>6</v>
       </c>
-      <c r="N5" s="108"/>
-      <c r="O5" s="105">
+      <c r="N5" s="109"/>
+      <c r="O5" s="106">
         <v>7</v>
       </c>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="105">
+      <c r="P5" s="107"/>
+      <c r="Q5" s="106">
         <v>8</v>
       </c>
-      <c r="R5" s="106"/>
-      <c r="S5" s="105">
+      <c r="R5" s="107"/>
+      <c r="S5" s="106">
         <v>9</v>
       </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="105">
+      <c r="T5" s="107"/>
+      <c r="U5" s="106">
         <v>10</v>
       </c>
-      <c r="V5" s="106"/>
-      <c r="W5" s="105">
+      <c r="V5" s="107"/>
+      <c r="W5" s="106">
         <v>11</v>
       </c>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="107">
+      <c r="X5" s="107"/>
+      <c r="Y5" s="108">
         <v>12</v>
       </c>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="107">
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="108">
         <v>13</v>
       </c>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="105">
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="106">
         <v>14</v>
       </c>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="105">
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="106">
         <v>15</v>
       </c>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="105">
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="106">
         <v>16</v>
       </c>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="105">
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="106">
         <v>17</v>
       </c>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="105">
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="106">
         <v>18</v>
       </c>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="107">
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="108">
         <v>19</v>
       </c>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="107">
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="108">
         <v>20</v>
       </c>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="105">
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="106">
         <v>21</v>
       </c>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="105">
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="106">
         <v>22</v>
       </c>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="105">
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="106">
         <v>23</v>
       </c>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="105">
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="106">
         <v>24</v>
       </c>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="105">
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="106">
         <v>25</v>
       </c>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="107">
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="108">
         <v>26</v>
       </c>
-      <c r="BB5" s="108"/>
-      <c r="BC5" s="107">
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="108">
         <v>27</v>
       </c>
-      <c r="BD5" s="108"/>
-      <c r="BE5" s="105">
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="106">
         <v>28</v>
       </c>
-      <c r="BF5" s="106"/>
-      <c r="BG5" s="105">
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="106">
         <v>29</v>
       </c>
-      <c r="BH5" s="106"/>
-      <c r="BI5" s="105">
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="106">
         <v>30</v>
       </c>
-      <c r="BJ5" s="106"/>
-      <c r="BK5" s="105">
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="106">
         <v>31</v>
       </c>
-      <c r="BL5" s="106"/>
+      <c r="BL5" s="107"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="105" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="105" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="106"/>
-      <c r="G6" s="105" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="106"/>
-      <c r="I6" s="105" t="s">
+      <c r="H6" s="107"/>
+      <c r="I6" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107" t="s">
+      <c r="J6" s="107"/>
+      <c r="K6" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="107" t="s">
+      <c r="L6" s="109"/>
+      <c r="M6" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="108"/>
-      <c r="O6" s="105" t="s">
+      <c r="N6" s="109"/>
+      <c r="O6" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="105" t="s">
+      <c r="P6" s="107"/>
+      <c r="Q6" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="106"/>
-      <c r="S6" s="105" t="s">
+      <c r="R6" s="107"/>
+      <c r="S6" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="T6" s="106"/>
-      <c r="U6" s="105" t="s">
+      <c r="T6" s="107"/>
+      <c r="U6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="106"/>
-      <c r="W6" s="105" t="s">
+      <c r="V6" s="107"/>
+      <c r="W6" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="107" t="s">
+      <c r="X6" s="107"/>
+      <c r="Y6" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="107" t="s">
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="105" t="s">
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="105" t="s">
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="105" t="s">
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="105" t="s">
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="105" t="s">
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="107" t="s">
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="107" t="s">
+      <c r="AN6" s="109"/>
+      <c r="AO6" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="105" t="s">
+      <c r="AP6" s="109"/>
+      <c r="AQ6" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="105" t="s">
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="105" t="s">
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="105" t="s">
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="105" t="s">
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="107" t="s">
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="107" t="s">
+      <c r="BB6" s="109"/>
+      <c r="BC6" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="BD6" s="108"/>
-      <c r="BE6" s="105" t="s">
+      <c r="BD6" s="109"/>
+      <c r="BE6" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="BF6" s="106"/>
-      <c r="BG6" s="105" t="s">
+      <c r="BF6" s="107"/>
+      <c r="BG6" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="BH6" s="106"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BH6" s="107"/>
+      <c r="BI6" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="BJ6" s="106"/>
-      <c r="BK6" s="105" t="s">
+      <c r="BJ6" s="107"/>
+      <c r="BK6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="BL6" s="106"/>
+      <c r="BL6" s="107"/>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="104"/>
@@ -16008,6 +16008,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -16024,54 +16072,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="16" documentId="8_{DCBAECE5-60DB-445C-9E25-5C9685A3BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB3282E0-A985-4EC0-B916-8CF94087C9A1}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="345" windowWidth="23790" windowHeight="14775" tabRatio="805" activeTab="1" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="1890" yWindow="1590" windowWidth="21600" windowHeight="13320" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -2770,6 +2770,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2780,9 +2783,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4160,7 +4160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795CA75-2E57-4007-A1E6-AF0752BF2C5D}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -13366,7 +13366,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -15222,258 +15222,258 @@
       <c r="B5" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="107">
         <v>1</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="106">
+      <c r="D5" s="108"/>
+      <c r="E5" s="107">
         <v>2</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="106">
+      <c r="F5" s="108"/>
+      <c r="G5" s="107">
         <v>3</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="106">
+      <c r="H5" s="108"/>
+      <c r="I5" s="107">
         <v>4</v>
       </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="108">
+      <c r="J5" s="108"/>
+      <c r="K5" s="109">
         <v>5</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="108">
+      <c r="L5" s="110"/>
+      <c r="M5" s="109">
         <v>6</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="106">
+      <c r="N5" s="110"/>
+      <c r="O5" s="107">
         <v>7</v>
       </c>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="106">
+      <c r="P5" s="108"/>
+      <c r="Q5" s="107">
         <v>8</v>
       </c>
-      <c r="R5" s="107"/>
-      <c r="S5" s="106">
+      <c r="R5" s="108"/>
+      <c r="S5" s="107">
         <v>9</v>
       </c>
-      <c r="T5" s="107"/>
-      <c r="U5" s="106">
+      <c r="T5" s="108"/>
+      <c r="U5" s="107">
         <v>10</v>
       </c>
-      <c r="V5" s="107"/>
-      <c r="W5" s="106">
+      <c r="V5" s="108"/>
+      <c r="W5" s="107">
         <v>11</v>
       </c>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="108">
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109">
         <v>12</v>
       </c>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="108">
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="109">
         <v>13</v>
       </c>
-      <c r="AB5" s="109"/>
-      <c r="AC5" s="106">
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="107">
         <v>14</v>
       </c>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="106">
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="107">
         <v>15</v>
       </c>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="106">
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="107">
         <v>16</v>
       </c>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="106">
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="107">
         <v>17</v>
       </c>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="106">
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="107">
         <v>18</v>
       </c>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="108">
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="109">
         <v>19</v>
       </c>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="108">
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="109">
         <v>20</v>
       </c>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="106">
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="107">
         <v>21</v>
       </c>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="106">
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="107">
         <v>22</v>
       </c>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="106">
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="107">
         <v>23</v>
       </c>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="106">
+      <c r="AV5" s="108"/>
+      <c r="AW5" s="107">
         <v>24</v>
       </c>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="106">
+      <c r="AX5" s="108"/>
+      <c r="AY5" s="107">
         <v>25</v>
       </c>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="108">
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="109">
         <v>26</v>
       </c>
-      <c r="BB5" s="109"/>
-      <c r="BC5" s="108">
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="109">
         <v>27</v>
       </c>
-      <c r="BD5" s="109"/>
-      <c r="BE5" s="106">
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="107">
         <v>28</v>
       </c>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="106">
+      <c r="BF5" s="108"/>
+      <c r="BG5" s="107">
         <v>29</v>
       </c>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="106">
+      <c r="BH5" s="108"/>
+      <c r="BI5" s="107">
         <v>30</v>
       </c>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="106">
+      <c r="BJ5" s="108"/>
+      <c r="BK5" s="107">
         <v>31</v>
       </c>
-      <c r="BL5" s="107"/>
+      <c r="BL5" s="108"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="106" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="106" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="106" t="s">
+      <c r="F6" s="108"/>
+      <c r="G6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="106" t="s">
+      <c r="H6" s="108"/>
+      <c r="I6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108" t="s">
+      <c r="J6" s="108"/>
+      <c r="K6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="109"/>
-      <c r="M6" s="108" t="s">
+      <c r="L6" s="110"/>
+      <c r="M6" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="106" t="s">
+      <c r="N6" s="110"/>
+      <c r="O6" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="106" t="s">
+      <c r="P6" s="108"/>
+      <c r="Q6" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="107"/>
-      <c r="S6" s="106" t="s">
+      <c r="R6" s="108"/>
+      <c r="S6" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="107"/>
-      <c r="U6" s="106" t="s">
+      <c r="T6" s="108"/>
+      <c r="U6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="107"/>
-      <c r="W6" s="106" t="s">
+      <c r="V6" s="108"/>
+      <c r="W6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="108" t="s">
+      <c r="X6" s="108"/>
+      <c r="Y6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="108" t="s">
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="106" t="s">
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="106" t="s">
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="107"/>
-      <c r="AG6" s="106" t="s">
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="AH6" s="107"/>
-      <c r="AI6" s="106" t="s">
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="AJ6" s="107"/>
-      <c r="AK6" s="106" t="s">
+      <c r="AJ6" s="108"/>
+      <c r="AK6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="AL6" s="107"/>
-      <c r="AM6" s="108" t="s">
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="AN6" s="109"/>
-      <c r="AO6" s="108" t="s">
+      <c r="AN6" s="110"/>
+      <c r="AO6" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="AP6" s="109"/>
-      <c r="AQ6" s="106" t="s">
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="106" t="s">
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="106" t="s">
+      <c r="AT6" s="108"/>
+      <c r="AU6" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="AV6" s="107"/>
-      <c r="AW6" s="106" t="s">
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="AX6" s="107"/>
-      <c r="AY6" s="106" t="s">
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="AZ6" s="107"/>
-      <c r="BA6" s="108" t="s">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="BB6" s="109"/>
-      <c r="BC6" s="108" t="s">
+      <c r="BB6" s="110"/>
+      <c r="BC6" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="BD6" s="109"/>
-      <c r="BE6" s="106" t="s">
+      <c r="BD6" s="110"/>
+      <c r="BE6" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="BF6" s="107"/>
-      <c r="BG6" s="106" t="s">
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="BH6" s="107"/>
-      <c r="BI6" s="106" t="s">
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="BJ6" s="107"/>
-      <c r="BK6" s="106" t="s">
+      <c r="BJ6" s="108"/>
+      <c r="BK6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="BL6" s="107"/>
+      <c r="BL6" s="108"/>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="105"/>
@@ -16005,6 +16005,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -16021,54 +16069,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{DCBAECE5-60DB-445C-9E25-5C9685A3BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB3282E0-A985-4EC0-B916-8CF94087C9A1}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{DCBAECE5-60DB-445C-9E25-5C9685A3BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD61E61D-8FE4-451D-BD98-39E72CB7D3B4}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1590" windowWidth="21600" windowHeight="13320" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21165" windowHeight="14250" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="204">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1412,72 +1412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付のセルに関数を入れる方法、条件付き書式を設定する方法</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ジョウケンツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショシキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「空文字列」についてもわからなければ調べてみましょう。</t>
-    <rPh sb="1" eb="5">
-      <t>カラモジレツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シリアル値がその月であるかどうかを調べる方法、日付が何日以上であるかを判断する方法</t>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>ナンニチイジョウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>…もっと違うやり方もあるかもしれません、どのようにやるか作戦を立ててください</t>
     <rPh sb="4" eb="5">
       <t>チガ</t>
@@ -1857,6 +1791,105 @@
   </si>
   <si>
     <t>2003/01/01</t>
+  </si>
+  <si>
+    <t>「その月に存在しない日」の条件を考えましょう</t>
+    <rPh sb="3" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付がその月であるかどうか？という条件</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付が何日以下か？という条件</t>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「非表示にする」やり方についても考えてみましょう</t>
+    <rPh sb="1" eb="4">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルに関数を入れて、条件にマッチしたら値を非表示（空文字列）にする方法</t>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>カラモジレツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件付き書式で値を見えないようにする方法</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウケンツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2770,9 +2803,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2783,6 +2813,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4170,7 +4203,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13378,7 +13411,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1">
@@ -13536,7 +13569,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -13577,7 +13610,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="C14" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13602,7 +13635,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="C21" s="22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -13610,7 +13643,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -13631,14 +13664,14 @@
     </row>
     <row r="28" spans="2:5">
       <c r="C28" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D28" s="102"/>
       <c r="E28" s="101"/>
     </row>
     <row r="29" spans="2:5">
       <c r="C29" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D29" s="102"/>
       <c r="E29" s="101"/>
@@ -13646,7 +13679,7 @@
     <row r="30" spans="2:5">
       <c r="C30" s="20"/>
       <c r="D30" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E30" s="101"/>
     </row>
@@ -13655,7 +13688,7 @@
         <v>56</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -13672,7 +13705,7 @@
     </row>
     <row r="37" spans="2:5">
       <c r="C37" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -13680,12 +13713,12 @@
         <v>96</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="C40" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -13694,12 +13727,12 @@
     </row>
     <row r="42" spans="2:5">
       <c r="C42" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="C43" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -13732,7 +13765,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
@@ -13749,7 +13782,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="77" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C3" s="77"/>
     </row>
@@ -13760,13 +13793,13 @@
     <row r="5" spans="1:7">
       <c r="B5" s="77"/>
       <c r="C5" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="77"/>
       <c r="C6" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" thickBot="1">
@@ -13905,7 +13938,7 @@
     </row>
     <row r="23" spans="2:4" ht="19.5" thickBot="1">
       <c r="B23" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="19.5" thickBot="1">
@@ -14083,7 +14116,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" customHeight="1">
@@ -14104,7 +14137,7 @@
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
       <c r="B4" s="95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C4" s="97">
         <v>458</v>
@@ -14116,7 +14149,7 @@
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1">
       <c r="B5" s="95" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C5" s="97">
         <v>490</v>
@@ -14128,7 +14161,7 @@
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
       <c r="B6" s="95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C6" s="97">
         <v>227</v>
@@ -14141,7 +14174,7 @@
     <row r="7" spans="1:7">
       <c r="D7" s="100"/>
       <c r="G7" s="93" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -14160,7 +14193,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -14206,7 +14239,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0051BF1-256B-4B57-B5C2-7CB0BABD75BC}">
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -14703,51 +14736,78 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="3:22">
       <c r="D33" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="D34" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
+        <v>198</v>
+      </c>
+      <c r="T33" s="21"/>
+      <c r="U33" s="22"/>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="D34" s="21"/>
+      <c r="F34" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="T34" s="21"/>
+      <c r="U34" s="22"/>
+    </row>
+    <row r="35" spans="3:22">
       <c r="D35" s="21"/>
       <c r="F35" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="D36" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="T35" s="21"/>
+      <c r="U35" s="22"/>
+    </row>
+    <row r="36" spans="3:22">
+      <c r="D36" s="21"/>
+      <c r="F36" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="T36" s="21"/>
+      <c r="V36" s="22"/>
+    </row>
+    <row r="37" spans="3:22">
+      <c r="D37" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="20" t="s">
+      <c r="E37" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="T37" s="21"/>
+      <c r="U37" s="22"/>
+    </row>
+    <row r="38" spans="3:22">
+      <c r="F38" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22">
+      <c r="F39" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22">
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="3:22">
+      <c r="C41" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="3:22">
+      <c r="C42" s="20"/>
+      <c r="D42" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+    <row r="43" spans="3:22">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14775,12 +14835,12 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1"/>
@@ -14980,7 +15040,7 @@
     </row>
     <row r="20" spans="2:5" ht="19.5" thickBot="1">
       <c r="B20" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1">
@@ -15222,258 +15282,258 @@
       <c r="B5" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="106">
         <v>1</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="107">
+      <c r="D5" s="107"/>
+      <c r="E5" s="106">
         <v>2</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="107">
+      <c r="F5" s="107"/>
+      <c r="G5" s="106">
         <v>3</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="107">
+      <c r="H5" s="107"/>
+      <c r="I5" s="106">
         <v>4</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="109">
+      <c r="J5" s="107"/>
+      <c r="K5" s="108">
         <v>5</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="M5" s="109">
+      <c r="L5" s="109"/>
+      <c r="M5" s="108">
         <v>6</v>
       </c>
-      <c r="N5" s="110"/>
-      <c r="O5" s="107">
+      <c r="N5" s="109"/>
+      <c r="O5" s="106">
         <v>7</v>
       </c>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="107">
+      <c r="P5" s="107"/>
+      <c r="Q5" s="106">
         <v>8</v>
       </c>
-      <c r="R5" s="108"/>
-      <c r="S5" s="107">
+      <c r="R5" s="107"/>
+      <c r="S5" s="106">
         <v>9</v>
       </c>
-      <c r="T5" s="108"/>
-      <c r="U5" s="107">
+      <c r="T5" s="107"/>
+      <c r="U5" s="106">
         <v>10</v>
       </c>
-      <c r="V5" s="108"/>
-      <c r="W5" s="107">
+      <c r="V5" s="107"/>
+      <c r="W5" s="106">
         <v>11</v>
       </c>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="109">
+      <c r="X5" s="107"/>
+      <c r="Y5" s="108">
         <v>12</v>
       </c>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="109">
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="108">
         <v>13</v>
       </c>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="107">
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="106">
         <v>14</v>
       </c>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="107">
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="106">
         <v>15</v>
       </c>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="107">
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="106">
         <v>16</v>
       </c>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="107">
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="106">
         <v>17</v>
       </c>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="107">
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="106">
         <v>18</v>
       </c>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="109">
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="108">
         <v>19</v>
       </c>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="109">
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="108">
         <v>20</v>
       </c>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="107">
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="106">
         <v>21</v>
       </c>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="107">
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="106">
         <v>22</v>
       </c>
-      <c r="AT5" s="108"/>
-      <c r="AU5" s="107">
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="106">
         <v>23</v>
       </c>
-      <c r="AV5" s="108"/>
-      <c r="AW5" s="107">
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="106">
         <v>24</v>
       </c>
-      <c r="AX5" s="108"/>
-      <c r="AY5" s="107">
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="106">
         <v>25</v>
       </c>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="109">
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="108">
         <v>26</v>
       </c>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="109">
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="108">
         <v>27</v>
       </c>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="107">
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="106">
         <v>28</v>
       </c>
-      <c r="BF5" s="108"/>
-      <c r="BG5" s="107">
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="106">
         <v>29</v>
       </c>
-      <c r="BH5" s="108"/>
-      <c r="BI5" s="107">
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="106">
         <v>30</v>
       </c>
-      <c r="BJ5" s="108"/>
-      <c r="BK5" s="107">
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="106">
         <v>31</v>
       </c>
-      <c r="BL5" s="108"/>
+      <c r="BL5" s="107"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="107" t="s">
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="107" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="108"/>
-      <c r="G6" s="107" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="107" t="s">
+      <c r="H6" s="107"/>
+      <c r="I6" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109" t="s">
+      <c r="J6" s="107"/>
+      <c r="K6" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="110"/>
-      <c r="M6" s="109" t="s">
+      <c r="L6" s="109"/>
+      <c r="M6" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="110"/>
-      <c r="O6" s="107" t="s">
+      <c r="N6" s="109"/>
+      <c r="O6" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="107" t="s">
+      <c r="P6" s="107"/>
+      <c r="Q6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="108"/>
-      <c r="S6" s="107" t="s">
+      <c r="R6" s="107"/>
+      <c r="S6" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="108"/>
-      <c r="U6" s="107" t="s">
+      <c r="T6" s="107"/>
+      <c r="U6" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="107" t="s">
+      <c r="V6" s="107"/>
+      <c r="W6" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="109" t="s">
+      <c r="X6" s="107"/>
+      <c r="Y6" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="109" t="s">
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="107" t="s">
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="107" t="s">
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="107" t="s">
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="107" t="s">
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="AJ6" s="108"/>
-      <c r="AK6" s="107" t="s">
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="109" t="s">
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="AN6" s="110"/>
-      <c r="AO6" s="109" t="s">
+      <c r="AN6" s="109"/>
+      <c r="AO6" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="107" t="s">
+      <c r="AP6" s="109"/>
+      <c r="AQ6" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="107" t="s">
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="AT6" s="108"/>
-      <c r="AU6" s="107" t="s">
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="107" t="s">
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="107" t="s">
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="109" t="s">
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="BB6" s="110"/>
-      <c r="BC6" s="109" t="s">
+      <c r="BB6" s="109"/>
+      <c r="BC6" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="BD6" s="110"/>
-      <c r="BE6" s="107" t="s">
+      <c r="BD6" s="109"/>
+      <c r="BE6" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="107" t="s">
+      <c r="BF6" s="107"/>
+      <c r="BG6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="107" t="s">
+      <c r="BH6" s="107"/>
+      <c r="BI6" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="BJ6" s="108"/>
-      <c r="BK6" s="107" t="s">
+      <c r="BJ6" s="107"/>
+      <c r="BK6" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="BL6" s="108"/>
+      <c r="BL6" s="107"/>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="105"/>
@@ -16005,54 +16065,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -16069,6 +16081,54 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{DCBAECE5-60DB-445C-9E25-5C9685A3BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD61E61D-8FE4-451D-BD98-39E72CB7D3B4}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{DCBAECE5-60DB-445C-9E25-5C9685A3BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB9A864-2B01-4F91-9282-E022A333984F}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21165" windowHeight="14250" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="3750" yWindow="630" windowWidth="17925" windowHeight="11250" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="205">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1889,6 +1889,10 @@
     <rPh sb="18" eb="20">
       <t>ホウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2803,6 +2807,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2813,9 +2820,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14200,7 +14204,9 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
@@ -14211,9 +14217,13 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
@@ -14222,10 +14232,14 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -15282,258 +15296,258 @@
       <c r="B5" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="107">
         <v>1</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="106">
+      <c r="D5" s="108"/>
+      <c r="E5" s="107">
         <v>2</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="106">
+      <c r="F5" s="108"/>
+      <c r="G5" s="107">
         <v>3</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="106">
+      <c r="H5" s="108"/>
+      <c r="I5" s="107">
         <v>4</v>
       </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="108">
+      <c r="J5" s="108"/>
+      <c r="K5" s="109">
         <v>5</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="108">
+      <c r="L5" s="110"/>
+      <c r="M5" s="109">
         <v>6</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="106">
+      <c r="N5" s="110"/>
+      <c r="O5" s="107">
         <v>7</v>
       </c>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="106">
+      <c r="P5" s="108"/>
+      <c r="Q5" s="107">
         <v>8</v>
       </c>
-      <c r="R5" s="107"/>
-      <c r="S5" s="106">
+      <c r="R5" s="108"/>
+      <c r="S5" s="107">
         <v>9</v>
       </c>
-      <c r="T5" s="107"/>
-      <c r="U5" s="106">
+      <c r="T5" s="108"/>
+      <c r="U5" s="107">
         <v>10</v>
       </c>
-      <c r="V5" s="107"/>
-      <c r="W5" s="106">
+      <c r="V5" s="108"/>
+      <c r="W5" s="107">
         <v>11</v>
       </c>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="108">
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109">
         <v>12</v>
       </c>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="108">
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="109">
         <v>13</v>
       </c>
-      <c r="AB5" s="109"/>
-      <c r="AC5" s="106">
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="107">
         <v>14</v>
       </c>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="106">
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="107">
         <v>15</v>
       </c>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="106">
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="107">
         <v>16</v>
       </c>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="106">
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="107">
         <v>17</v>
       </c>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="106">
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="107">
         <v>18</v>
       </c>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="108">
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="109">
         <v>19</v>
       </c>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="108">
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="109">
         <v>20</v>
       </c>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="106">
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="107">
         <v>21</v>
       </c>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="106">
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="107">
         <v>22</v>
       </c>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="106">
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="107">
         <v>23</v>
       </c>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="106">
+      <c r="AV5" s="108"/>
+      <c r="AW5" s="107">
         <v>24</v>
       </c>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="106">
+      <c r="AX5" s="108"/>
+      <c r="AY5" s="107">
         <v>25</v>
       </c>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="108">
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="109">
         <v>26</v>
       </c>
-      <c r="BB5" s="109"/>
-      <c r="BC5" s="108">
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="109">
         <v>27</v>
       </c>
-      <c r="BD5" s="109"/>
-      <c r="BE5" s="106">
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="107">
         <v>28</v>
       </c>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="106">
+      <c r="BF5" s="108"/>
+      <c r="BG5" s="107">
         <v>29</v>
       </c>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="106">
+      <c r="BH5" s="108"/>
+      <c r="BI5" s="107">
         <v>30</v>
       </c>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="106">
+      <c r="BJ5" s="108"/>
+      <c r="BK5" s="107">
         <v>31</v>
       </c>
-      <c r="BL5" s="107"/>
+      <c r="BL5" s="108"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="106" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="106" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="106" t="s">
+      <c r="F6" s="108"/>
+      <c r="G6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="106" t="s">
+      <c r="H6" s="108"/>
+      <c r="I6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108" t="s">
+      <c r="J6" s="108"/>
+      <c r="K6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="109"/>
-      <c r="M6" s="108" t="s">
+      <c r="L6" s="110"/>
+      <c r="M6" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="106" t="s">
+      <c r="N6" s="110"/>
+      <c r="O6" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="106" t="s">
+      <c r="P6" s="108"/>
+      <c r="Q6" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="107"/>
-      <c r="S6" s="106" t="s">
+      <c r="R6" s="108"/>
+      <c r="S6" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="107"/>
-      <c r="U6" s="106" t="s">
+      <c r="T6" s="108"/>
+      <c r="U6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="107"/>
-      <c r="W6" s="106" t="s">
+      <c r="V6" s="108"/>
+      <c r="W6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="108" t="s">
+      <c r="X6" s="108"/>
+      <c r="Y6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="108" t="s">
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="106" t="s">
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="106" t="s">
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="107"/>
-      <c r="AG6" s="106" t="s">
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="AH6" s="107"/>
-      <c r="AI6" s="106" t="s">
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="AJ6" s="107"/>
-      <c r="AK6" s="106" t="s">
+      <c r="AJ6" s="108"/>
+      <c r="AK6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="AL6" s="107"/>
-      <c r="AM6" s="108" t="s">
+      <c r="AL6" s="108"/>
+      <c r="AM6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="AN6" s="109"/>
-      <c r="AO6" s="108" t="s">
+      <c r="AN6" s="110"/>
+      <c r="AO6" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="AP6" s="109"/>
-      <c r="AQ6" s="106" t="s">
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="106" t="s">
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="106" t="s">
+      <c r="AT6" s="108"/>
+      <c r="AU6" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="AV6" s="107"/>
-      <c r="AW6" s="106" t="s">
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="AX6" s="107"/>
-      <c r="AY6" s="106" t="s">
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="AZ6" s="107"/>
-      <c r="BA6" s="108" t="s">
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="BB6" s="109"/>
-      <c r="BC6" s="108" t="s">
+      <c r="BB6" s="110"/>
+      <c r="BC6" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="BD6" s="109"/>
-      <c r="BE6" s="106" t="s">
+      <c r="BD6" s="110"/>
+      <c r="BE6" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="BF6" s="107"/>
-      <c r="BG6" s="106" t="s">
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="BH6" s="107"/>
-      <c r="BI6" s="106" t="s">
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="BJ6" s="107"/>
-      <c r="BK6" s="106" t="s">
+      <c r="BJ6" s="108"/>
+      <c r="BK6" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="BL6" s="107"/>
+      <c r="BL6" s="108"/>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="105"/>
@@ -16065,6 +16079,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -16081,54 +16143,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{DCBAECE5-60DB-445C-9E25-5C9685A3BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB9A864-2B01-4F91-9282-E022A333984F}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{DCBAECE5-60DB-445C-9E25-5C9685A3BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2FFC29-1926-4EFD-96F0-2D12353F130B}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="630" windowWidth="17925" windowHeight="11250" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23895" windowHeight="14580" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="条件分岐（複数条件）" sheetId="13" r:id="rId7"/>
     <sheet name="書式設定【応用】" sheetId="7" r:id="rId8"/>
     <sheet name="関数【応用】" sheetId="10" r:id="rId9"/>
-    <sheet name="TOYOTAカレンダー" sheetId="8" r:id="rId10"/>
-    <sheet name="LIST" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="ピボットテーブル" sheetId="18" r:id="rId10"/>
+    <sheet name="TOYOTAカレンダー" sheetId="8" r:id="rId11"/>
+    <sheet name="LIST" sheetId="11" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="229">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1893,6 +1894,149 @@
   </si>
   <si>
     <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のふるさと納税実績表から、確定申告しやすいように納税市町村別、日付別、納税額でピボットテーブルを作成してください</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>ノウゼイジッセキヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>カクテイシンコク</t>
+    </rPh>
+    <rPh sb="26" eb="32">
+      <t>ノウゼイシチョウソンベツ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒヅケベツ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ノウゼイガク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名を「ピボットテーブル_A」としてください。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふるさと納税実績表</t>
+    <rPh sb="4" eb="6">
+      <t>ノウゼイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジッセキヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>市町村</t>
+    <rPh sb="0" eb="3">
+      <t>シチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>品物</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>茨城県守谷市</t>
+  </si>
+  <si>
+    <t>アサヒ　クリアアサヒ350ml×24本　1ケース</t>
+  </si>
+  <si>
+    <t>静岡県富士市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレミアム『スマートフラワー』トイレットペーパーとティッシュペーパーの詰め合わせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪府泉佐野市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【TVで紹介されました!】泉州たまねぎ 10kg 射手矢農園 G1498</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐賀県上峰町</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国産うなぎ蒲焼200g前後 × 2尾 計400g前後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高知県室戸市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【グランプリ受賞!】西山金時スウィートポテトロール(ロールケーキ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北海道紋別市</t>
+  </si>
+  <si>
+    <t>北海道オホーツク海産ホタテ玉冷(1kg)</t>
+  </si>
+  <si>
+    <t>山梨県富士吉田市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【さとふる限定】果樹王国 やまなし から シャインマスカット 2房 (約1kg)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1900,7 +2044,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1916,8 +2060,9 @@
     <numFmt numFmtId="187" formatCode="#,##0.0"/>
     <numFmt numFmtId="188" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="189" formatCode="#\ &quot;個&quot;"/>
+    <numFmt numFmtId="190" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,6 +2184,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2084,7 +2235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2466,6 +2617,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2477,7 +2643,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2789,10 +2955,7 @@
     <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2807,9 +2970,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2821,6 +2981,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4277,6 +4473,477 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBFA7D7-40F9-42E3-95C2-CCB20198B65D}">
+  <dimension ref="A2:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="76.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="111"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="113" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="117">
+        <v>45677</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="119">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="119">
+        <v>1</v>
+      </c>
+      <c r="F7" s="120">
+        <f t="shared" ref="F7:F26" si="0">IF(A7="","",D7*E7)</f>
+        <v>12000</v>
+      </c>
+      <c r="G7" s="120">
+        <f>IF(F7="","",F7)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="117">
+        <v>45698</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="119">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="119">
+        <v>2</v>
+      </c>
+      <c r="F8" s="120">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="G8" s="120">
+        <f>IF(F8="","",G7+F8)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="117">
+        <v>45698</v>
+      </c>
+      <c r="B9" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="119">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="119">
+        <v>1</v>
+      </c>
+      <c r="F9" s="120">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="G9" s="120">
+        <f t="shared" ref="G9:G26" si="1">IF(F9="","",G8+F9)</f>
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="117">
+        <v>45718</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="119">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="119">
+        <v>1</v>
+      </c>
+      <c r="F10" s="120">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G10" s="120">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="117">
+        <v>45727</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="119">
+        <v>12000</v>
+      </c>
+      <c r="E11" s="119">
+        <v>1</v>
+      </c>
+      <c r="F11" s="120">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="G11" s="120">
+        <f t="shared" si="1"/>
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="117">
+        <v>45768</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="119">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="119">
+        <v>1</v>
+      </c>
+      <c r="F12" s="120">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="G12" s="120">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="117">
+        <v>45768</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="119">
+        <v>16000</v>
+      </c>
+      <c r="E13" s="119">
+        <v>1</v>
+      </c>
+      <c r="F13" s="120">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="G13" s="120">
+        <f t="shared" si="1"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="117">
+        <v>45793</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="119">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="119">
+        <v>1</v>
+      </c>
+      <c r="F14" s="120">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="G14" s="120">
+        <f t="shared" si="1"/>
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="117">
+        <v>45793</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="119">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="119">
+        <v>2</v>
+      </c>
+      <c r="F15" s="120">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="G15" s="120">
+        <f t="shared" si="1"/>
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="117">
+        <v>45809</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="118" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="119">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="119">
+        <v>1</v>
+      </c>
+      <c r="F16" s="120">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G16" s="120">
+        <f t="shared" si="1"/>
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="117">
+        <v>45826</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="119">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="119">
+        <v>1</v>
+      </c>
+      <c r="F17" s="120">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="G17" s="120">
+        <f t="shared" si="1"/>
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="117"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="117"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="117"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="117"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="117"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="117"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="117"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="117"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAB4FA3-9020-45ED-B2DA-ED236D8A5AE2}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -13353,7 +14020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC79B8A7-FF02-4123-90DC-97D25F02B066}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -13475,8 +14142,8 @@
       <c r="H4" s="6">
         <v>94.900001525878906</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5">
@@ -13503,8 +14170,8 @@
       <c r="H5" s="6">
         <v>49.900001525878906</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -13531,8 +14198,8 @@
       <c r="H6" s="6">
         <v>92.400001525878906</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -13559,8 +14226,8 @@
       <c r="H7" s="6">
         <v>58.200000762939453</v>
       </c>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -13587,8 +14254,8 @@
       <c r="H8" s="6">
         <v>64.199996948242188</v>
       </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="20" t="s">
@@ -13664,28 +14331,28 @@
     </row>
     <row r="27" spans="2:5">
       <c r="D27" s="21"/>
-      <c r="E27" s="101"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5">
       <c r="C28" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5">
       <c r="C29" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="20"/>
       <c r="D30" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="101"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="20" t="s">
@@ -13727,7 +14394,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="D41" s="21"/>
-      <c r="E41" s="101"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5">
       <c r="C42" s="22" t="s">
@@ -14283,10 +14950,10 @@
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="103" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="14">
@@ -14415,8 +15082,8 @@
       </c>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="16" t="s">
         <v>33</v>
       </c>
@@ -15290,268 +15957,268 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="105">
         <v>1</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="107">
+      <c r="D5" s="106"/>
+      <c r="E5" s="105">
         <v>2</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="107">
+      <c r="F5" s="106"/>
+      <c r="G5" s="105">
         <v>3</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="107">
+      <c r="H5" s="106"/>
+      <c r="I5" s="105">
         <v>4</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="109">
+      <c r="J5" s="106"/>
+      <c r="K5" s="107">
         <v>5</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="M5" s="109">
+      <c r="L5" s="108"/>
+      <c r="M5" s="107">
         <v>6</v>
       </c>
-      <c r="N5" s="110"/>
-      <c r="O5" s="107">
+      <c r="N5" s="108"/>
+      <c r="O5" s="105">
         <v>7</v>
       </c>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="107">
+      <c r="P5" s="106"/>
+      <c r="Q5" s="105">
         <v>8</v>
       </c>
-      <c r="R5" s="108"/>
-      <c r="S5" s="107">
+      <c r="R5" s="106"/>
+      <c r="S5" s="105">
         <v>9</v>
       </c>
-      <c r="T5" s="108"/>
-      <c r="U5" s="107">
+      <c r="T5" s="106"/>
+      <c r="U5" s="105">
         <v>10</v>
       </c>
-      <c r="V5" s="108"/>
-      <c r="W5" s="107">
+      <c r="V5" s="106"/>
+      <c r="W5" s="105">
         <v>11</v>
       </c>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="109">
+      <c r="X5" s="106"/>
+      <c r="Y5" s="107">
         <v>12</v>
       </c>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="109">
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="107">
         <v>13</v>
       </c>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="107">
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="105">
         <v>14</v>
       </c>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="107">
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="105">
         <v>15</v>
       </c>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="107">
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="105">
         <v>16</v>
       </c>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="107">
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="105">
         <v>17</v>
       </c>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="107">
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="105">
         <v>18</v>
       </c>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="109">
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="107">
         <v>19</v>
       </c>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="109">
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="107">
         <v>20</v>
       </c>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="107">
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="105">
         <v>21</v>
       </c>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="107">
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="105">
         <v>22</v>
       </c>
-      <c r="AT5" s="108"/>
-      <c r="AU5" s="107">
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="105">
         <v>23</v>
       </c>
-      <c r="AV5" s="108"/>
-      <c r="AW5" s="107">
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="105">
         <v>24</v>
       </c>
-      <c r="AX5" s="108"/>
-      <c r="AY5" s="107">
+      <c r="AX5" s="106"/>
+      <c r="AY5" s="105">
         <v>25</v>
       </c>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="109">
+      <c r="AZ5" s="106"/>
+      <c r="BA5" s="107">
         <v>26</v>
       </c>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="109">
+      <c r="BB5" s="108"/>
+      <c r="BC5" s="107">
         <v>27</v>
       </c>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="107">
+      <c r="BD5" s="108"/>
+      <c r="BE5" s="105">
         <v>28</v>
       </c>
-      <c r="BF5" s="108"/>
-      <c r="BG5" s="107">
+      <c r="BF5" s="106"/>
+      <c r="BG5" s="105">
         <v>29</v>
       </c>
-      <c r="BH5" s="108"/>
-      <c r="BI5" s="107">
+      <c r="BH5" s="106"/>
+      <c r="BI5" s="105">
         <v>30</v>
       </c>
-      <c r="BJ5" s="108"/>
-      <c r="BK5" s="107">
+      <c r="BJ5" s="106"/>
+      <c r="BK5" s="105">
         <v>31</v>
       </c>
-      <c r="BL5" s="108"/>
+      <c r="BL5" s="106"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="107" t="s">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="107" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="108"/>
-      <c r="G6" s="107" t="s">
+      <c r="F6" s="106"/>
+      <c r="G6" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="107" t="s">
+      <c r="H6" s="106"/>
+      <c r="I6" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109" t="s">
+      <c r="J6" s="106"/>
+      <c r="K6" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="110"/>
-      <c r="M6" s="109" t="s">
+      <c r="L6" s="108"/>
+      <c r="M6" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="110"/>
-      <c r="O6" s="107" t="s">
+      <c r="N6" s="108"/>
+      <c r="O6" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="107" t="s">
+      <c r="P6" s="106"/>
+      <c r="Q6" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="108"/>
-      <c r="S6" s="107" t="s">
+      <c r="R6" s="106"/>
+      <c r="S6" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="108"/>
-      <c r="U6" s="107" t="s">
+      <c r="T6" s="106"/>
+      <c r="U6" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="108"/>
-      <c r="W6" s="107" t="s">
+      <c r="V6" s="106"/>
+      <c r="W6" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="109" t="s">
+      <c r="X6" s="106"/>
+      <c r="Y6" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="109" t="s">
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="107" t="s">
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="107" t="s">
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="107" t="s">
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="107" t="s">
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="AJ6" s="108"/>
-      <c r="AK6" s="107" t="s">
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="109" t="s">
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="AN6" s="110"/>
-      <c r="AO6" s="109" t="s">
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="107" t="s">
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="107" t="s">
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="AT6" s="108"/>
-      <c r="AU6" s="107" t="s">
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="107" t="s">
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="107" t="s">
+      <c r="AX6" s="106"/>
+      <c r="AY6" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="109" t="s">
+      <c r="AZ6" s="106"/>
+      <c r="BA6" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="BB6" s="110"/>
-      <c r="BC6" s="109" t="s">
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="BD6" s="110"/>
-      <c r="BE6" s="107" t="s">
+      <c r="BD6" s="108"/>
+      <c r="BE6" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="107" t="s">
+      <c r="BF6" s="106"/>
+      <c r="BG6" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="107" t="s">
+      <c r="BH6" s="106"/>
+      <c r="BI6" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="BJ6" s="108"/>
-      <c r="BK6" s="107" t="s">
+      <c r="BJ6" s="106"/>
+      <c r="BK6" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="BL6" s="108"/>
+      <c r="BL6" s="106"/>
     </row>
     <row r="7" spans="1:64">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="16" t="s">
         <v>69</v>
       </c>
@@ -16079,54 +16746,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -16143,6 +16762,54 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="14_{2C160B8E-F762-48DE-84B6-0EB762DAF212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC18AC4A-9184-46CB-977D-40C3AA35B8BB}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="14_{2C160B8E-F762-48DE-84B6-0EB762DAF212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE274414-77CC-4DEB-B03E-13C68ADC492D}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="765" windowWidth="23625" windowHeight="14595" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="1530" yWindow="405" windowWidth="23925" windowHeight="14145" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
     <sheet name="関数" sheetId="2" r:id="rId2"/>
-    <sheet name="条件分岐" sheetId="12" r:id="rId3"/>
-    <sheet name="セル参照" sheetId="16" r:id="rId4"/>
-    <sheet name="条件付き書式" sheetId="17" r:id="rId5"/>
-    <sheet name="書式設定【基礎】" sheetId="6" r:id="rId6"/>
-    <sheet name="条件分岐（複数条件）" sheetId="13" r:id="rId7"/>
-    <sheet name="書式設定【応用】" sheetId="7" r:id="rId8"/>
-    <sheet name="関数【応用】" sheetId="10" r:id="rId9"/>
+    <sheet name="セル参照" sheetId="16" r:id="rId3"/>
+    <sheet name="条件付き書式" sheetId="17" r:id="rId4"/>
+    <sheet name="書式設定【基礎】" sheetId="6" r:id="rId5"/>
+    <sheet name="条件分岐（複数条件）" sheetId="13" r:id="rId6"/>
+    <sheet name="書式設定【応用】" sheetId="7" r:id="rId7"/>
+    <sheet name="関数【応用】" sheetId="10" r:id="rId8"/>
+    <sheet name="条件分岐" sheetId="12" r:id="rId9"/>
     <sheet name="ピボットテーブル" sheetId="18" r:id="rId10"/>
     <sheet name="TOYOTAカレンダー" sheetId="8" r:id="rId11"/>
     <sheet name="LIST" sheetId="11" state="hidden" r:id="rId12"/>
@@ -2999,9 +2999,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3012,6 +3009,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3299,6 +3299,346 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180388</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846BB52B-8981-4511-8F53-1C8FFEB58A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1890713" y="7634288"/>
+          <a:ext cx="366125" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>183563</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223F5038-E341-4AB2-9036-968E0BFCCA82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1887538" y="10093325"/>
+          <a:ext cx="372475" cy="346075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>183563</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9E8BD6-6415-433E-BEBE-62698221E60A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1887538" y="5373688"/>
+          <a:ext cx="372475" cy="346075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="377238" cy="374650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639CD6B9-E60C-4F78-8864-70E016BB3F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1892300" y="6178550"/>
+          <a:ext cx="377238" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="366126" cy="339725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40470B20-26EB-4914-A4E1-861AC51269B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="6400800"/>
+          <a:ext cx="366126" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="366126" cy="346075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79C01B3-08D7-444D-B794-BE89EFADB79D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="5083175"/>
+          <a:ext cx="366126" cy="346075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="366126" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F46986C-F6B0-4FFB-8AA4-BD027597149A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="6196013"/>
+          <a:ext cx="366126" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3795,346 +4135,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180388</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846BB52B-8981-4511-8F53-1C8FFEB58A40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1890713" y="7634288"/>
-          <a:ext cx="366125" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>183563</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223F5038-E341-4AB2-9036-968E0BFCCA82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1887538" y="10093325"/>
-          <a:ext cx="372475" cy="346075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>183563</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9E8BD6-6415-433E-BEBE-62698221E60A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1887538" y="5373688"/>
-          <a:ext cx="372475" cy="346075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="377238" cy="374650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639CD6B9-E60C-4F78-8864-70E016BB3F0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1892300" y="6178550"/>
-          <a:ext cx="377238" cy="374650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="366126" cy="339725"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40470B20-26EB-4914-A4E1-861AC51269B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2000250" y="6400800"/>
-          <a:ext cx="366126" cy="339725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="366126" cy="346075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79C01B3-08D7-444D-B794-BE89EFADB79D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1695450" y="5083175"/>
-          <a:ext cx="366126" cy="346075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="366126" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F46986C-F6B0-4FFB-8AA4-BD027597149A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1695450" y="6196013"/>
-          <a:ext cx="366126" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
@@ -14460,362 +14460,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A632DF-1DFD-4A38-9700-AB7F101EBB78}">
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="74"/>
-    <col min="2" max="2" width="11.5" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="74"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="75"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="75"/>
-      <c r="C5" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="75"/>
-      <c r="C6" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" thickBot="1">
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" thickBot="1">
-      <c r="B8" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" thickTop="1">
-      <c r="B9" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="82">
-        <v>67</v>
-      </c>
-      <c r="D9" s="83"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="85">
-        <v>99</v>
-      </c>
-      <c r="D10" s="86"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="85">
-        <v>75</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="F11" s="80"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="85">
-        <v>45</v>
-      </c>
-      <c r="D12" s="86"/>
-      <c r="F12" s="80"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="85">
-        <v>55</v>
-      </c>
-      <c r="D13" s="86"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="85">
-        <v>74</v>
-      </c>
-      <c r="D14" s="86"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="85">
-        <v>67</v>
-      </c>
-      <c r="D15" s="86"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="85">
-        <v>45</v>
-      </c>
-      <c r="D16" s="86"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="85">
-        <v>70</v>
-      </c>
-      <c r="D17" s="86"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="85">
-        <v>100</v>
-      </c>
-      <c r="D18" s="86"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="85">
-        <v>66</v>
-      </c>
-      <c r="D19" s="86"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="85">
-        <v>48</v>
-      </c>
-      <c r="D20" s="86"/>
-    </row>
-    <row r="21" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B21" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="88">
-        <v>96</v>
-      </c>
-      <c r="D21" s="89"/>
-    </row>
-    <row r="23" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B23" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B24" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="19.5" thickTop="1">
-      <c r="B25" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="82">
-        <v>67</v>
-      </c>
-      <c r="D25" s="83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="85">
-        <v>99</v>
-      </c>
-      <c r="D26" s="86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="85">
-        <v>75</v>
-      </c>
-      <c r="D27" s="86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="85">
-        <v>45</v>
-      </c>
-      <c r="D28" s="86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="85">
-        <v>55</v>
-      </c>
-      <c r="D29" s="86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="85">
-        <v>74</v>
-      </c>
-      <c r="D30" s="86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="85">
-        <v>67</v>
-      </c>
-      <c r="D31" s="86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="85">
-        <v>45</v>
-      </c>
-      <c r="D32" s="86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="85">
-        <v>70</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="85">
-        <v>100</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="85">
-        <v>66</v>
-      </c>
-      <c r="D35" s="86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="85">
-        <v>48</v>
-      </c>
-      <c r="D36" s="86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B37" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="88">
-        <v>96</v>
-      </c>
-      <c r="D37" s="89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C87EC71-79C3-4E29-8E0E-17CCA82EC449}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -14895,7 +14539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93646E48-9B96-4691-B9AF-F44A07EC392D}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -14959,7 +14603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0051BF1-256B-4B57-B5C2-7CB0BABD75BC}">
   <dimension ref="A1:AG50"/>
   <sheetViews>
@@ -15574,7 +15218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689EC7F3-02F8-430F-B583-4AFFA1276743}">
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -15999,7 +15643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C867672-5A85-4B0C-A0A5-E7FD6756FEBF}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
@@ -16036,258 +15680,258 @@
       <c r="B5" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <v>1</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="117">
+      <c r="D5" s="117"/>
+      <c r="E5" s="116">
         <v>2</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="117">
+      <c r="F5" s="117"/>
+      <c r="G5" s="116">
         <v>3</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="117">
+      <c r="H5" s="117"/>
+      <c r="I5" s="116">
         <v>4</v>
       </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="119">
+      <c r="J5" s="117"/>
+      <c r="K5" s="118">
         <v>5</v>
       </c>
-      <c r="L5" s="120"/>
-      <c r="M5" s="119">
+      <c r="L5" s="119"/>
+      <c r="M5" s="118">
         <v>6</v>
       </c>
-      <c r="N5" s="120"/>
-      <c r="O5" s="117">
+      <c r="N5" s="119"/>
+      <c r="O5" s="116">
         <v>7</v>
       </c>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="117">
+      <c r="P5" s="117"/>
+      <c r="Q5" s="116">
         <v>8</v>
       </c>
-      <c r="R5" s="118"/>
-      <c r="S5" s="117">
+      <c r="R5" s="117"/>
+      <c r="S5" s="116">
         <v>9</v>
       </c>
-      <c r="T5" s="118"/>
-      <c r="U5" s="117">
+      <c r="T5" s="117"/>
+      <c r="U5" s="116">
         <v>10</v>
       </c>
-      <c r="V5" s="118"/>
-      <c r="W5" s="117">
+      <c r="V5" s="117"/>
+      <c r="W5" s="116">
         <v>11</v>
       </c>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="119">
+      <c r="X5" s="117"/>
+      <c r="Y5" s="118">
         <v>12</v>
       </c>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="119">
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="118">
         <v>13</v>
       </c>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="117">
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="116">
         <v>14</v>
       </c>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="117">
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="116">
         <v>15</v>
       </c>
-      <c r="AF5" s="118"/>
-      <c r="AG5" s="117">
+      <c r="AF5" s="117"/>
+      <c r="AG5" s="116">
         <v>16</v>
       </c>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="117">
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="116">
         <v>17</v>
       </c>
-      <c r="AJ5" s="118"/>
-      <c r="AK5" s="117">
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="116">
         <v>18</v>
       </c>
-      <c r="AL5" s="118"/>
-      <c r="AM5" s="119">
+      <c r="AL5" s="117"/>
+      <c r="AM5" s="118">
         <v>19</v>
       </c>
-      <c r="AN5" s="120"/>
-      <c r="AO5" s="119">
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="118">
         <v>20</v>
       </c>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="117">
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="116">
         <v>21</v>
       </c>
-      <c r="AR5" s="118"/>
-      <c r="AS5" s="117">
+      <c r="AR5" s="117"/>
+      <c r="AS5" s="116">
         <v>22</v>
       </c>
-      <c r="AT5" s="118"/>
-      <c r="AU5" s="117">
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="116">
         <v>23</v>
       </c>
-      <c r="AV5" s="118"/>
-      <c r="AW5" s="117">
+      <c r="AV5" s="117"/>
+      <c r="AW5" s="116">
         <v>24</v>
       </c>
-      <c r="AX5" s="118"/>
-      <c r="AY5" s="117">
+      <c r="AX5" s="117"/>
+      <c r="AY5" s="116">
         <v>25</v>
       </c>
-      <c r="AZ5" s="118"/>
-      <c r="BA5" s="119">
+      <c r="AZ5" s="117"/>
+      <c r="BA5" s="118">
         <v>26</v>
       </c>
-      <c r="BB5" s="120"/>
-      <c r="BC5" s="119">
+      <c r="BB5" s="119"/>
+      <c r="BC5" s="118">
         <v>27</v>
       </c>
-      <c r="BD5" s="120"/>
-      <c r="BE5" s="117">
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="116">
         <v>28</v>
       </c>
-      <c r="BF5" s="118"/>
-      <c r="BG5" s="117">
+      <c r="BF5" s="117"/>
+      <c r="BG5" s="116">
         <v>29</v>
       </c>
-      <c r="BH5" s="118"/>
-      <c r="BI5" s="117">
+      <c r="BH5" s="117"/>
+      <c r="BI5" s="116">
         <v>30</v>
       </c>
-      <c r="BJ5" s="118"/>
-      <c r="BK5" s="117">
+      <c r="BJ5" s="117"/>
+      <c r="BK5" s="116">
         <v>31</v>
       </c>
-      <c r="BL5" s="118"/>
+      <c r="BL5" s="117"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="117" t="s">
+      <c r="A6" s="120"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="117" t="s">
+      <c r="D6" s="117"/>
+      <c r="E6" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="117" t="s">
+      <c r="F6" s="117"/>
+      <c r="G6" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="117" t="s">
+      <c r="H6" s="117"/>
+      <c r="I6" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="118"/>
-      <c r="K6" s="119" t="s">
+      <c r="J6" s="117"/>
+      <c r="K6" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="119" t="s">
+      <c r="L6" s="119"/>
+      <c r="M6" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="120"/>
-      <c r="O6" s="117" t="s">
+      <c r="N6" s="119"/>
+      <c r="O6" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="117" t="s">
+      <c r="P6" s="117"/>
+      <c r="Q6" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="118"/>
-      <c r="S6" s="117" t="s">
+      <c r="R6" s="117"/>
+      <c r="S6" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="118"/>
-      <c r="U6" s="117" t="s">
+      <c r="T6" s="117"/>
+      <c r="U6" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="118"/>
-      <c r="W6" s="117" t="s">
+      <c r="V6" s="117"/>
+      <c r="W6" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="119" t="s">
+      <c r="X6" s="117"/>
+      <c r="Y6" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="119" t="s">
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="117" t="s">
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="117" t="s">
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="117" t="s">
+      <c r="AF6" s="117"/>
+      <c r="AG6" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="117" t="s">
+      <c r="AH6" s="117"/>
+      <c r="AI6" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="117" t="s">
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="119" t="s">
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="119" t="s">
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="117" t="s">
+      <c r="AP6" s="119"/>
+      <c r="AQ6" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="117" t="s">
+      <c r="AR6" s="117"/>
+      <c r="AS6" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="117" t="s">
+      <c r="AT6" s="117"/>
+      <c r="AU6" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="AV6" s="118"/>
-      <c r="AW6" s="117" t="s">
+      <c r="AV6" s="117"/>
+      <c r="AW6" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="AX6" s="118"/>
-      <c r="AY6" s="117" t="s">
+      <c r="AX6" s="117"/>
+      <c r="AY6" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="AZ6" s="118"/>
-      <c r="BA6" s="119" t="s">
+      <c r="AZ6" s="117"/>
+      <c r="BA6" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="BB6" s="120"/>
-      <c r="BC6" s="119" t="s">
+      <c r="BB6" s="119"/>
+      <c r="BC6" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="117" t="s">
+      <c r="BD6" s="119"/>
+      <c r="BE6" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="BF6" s="118"/>
-      <c r="BG6" s="117" t="s">
+      <c r="BF6" s="117"/>
+      <c r="BG6" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="BH6" s="118"/>
-      <c r="BI6" s="117" t="s">
+      <c r="BH6" s="117"/>
+      <c r="BI6" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="BJ6" s="118"/>
-      <c r="BK6" s="117" t="s">
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="BL6" s="118"/>
+      <c r="BL6" s="117"/>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="115"/>
@@ -16807,54 +16451,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -16871,6 +16467,54 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16878,7 +16522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D41923-D28C-4D44-B8F8-AD674F8993FB}">
   <dimension ref="B2:O56"/>
   <sheetViews>
@@ -17515,4 +17159,360 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A632DF-1DFD-4A38-9700-AB7F101EBB78}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="74"/>
+    <col min="2" max="2" width="11.5" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="75"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="75"/>
+      <c r="C5" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="75"/>
+      <c r="C6" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" thickBot="1">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" thickBot="1">
+      <c r="B8" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" thickTop="1">
+      <c r="B9" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="82">
+        <v>67</v>
+      </c>
+      <c r="D9" s="83"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="85">
+        <v>99</v>
+      </c>
+      <c r="D10" s="86"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="85">
+        <v>75</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="F11" s="80"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="85">
+        <v>45</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="F12" s="80"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="85">
+        <v>55</v>
+      </c>
+      <c r="D13" s="86"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="85">
+        <v>74</v>
+      </c>
+      <c r="D14" s="86"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="85">
+        <v>67</v>
+      </c>
+      <c r="D15" s="86"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="85">
+        <v>45</v>
+      </c>
+      <c r="D16" s="86"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="85">
+        <v>70</v>
+      </c>
+      <c r="D17" s="86"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="85">
+        <v>100</v>
+      </c>
+      <c r="D18" s="86"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="85">
+        <v>66</v>
+      </c>
+      <c r="D19" s="86"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="85">
+        <v>48</v>
+      </c>
+      <c r="D20" s="86"/>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B21" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="88">
+        <v>96</v>
+      </c>
+      <c r="D21" s="89"/>
+    </row>
+    <row r="23" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B23" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B24" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="19.5" thickTop="1">
+      <c r="B25" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="82">
+        <v>67</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="85">
+        <v>99</v>
+      </c>
+      <c r="D26" s="86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="85">
+        <v>75</v>
+      </c>
+      <c r="D27" s="86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="85">
+        <v>45</v>
+      </c>
+      <c r="D28" s="86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="85">
+        <v>55</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="85">
+        <v>74</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="85">
+        <v>67</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="85">
+        <v>45</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="85">
+        <v>70</v>
+      </c>
+      <c r="D33" s="86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="85">
+        <v>100</v>
+      </c>
+      <c r="D34" s="86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="85">
+        <v>66</v>
+      </c>
+      <c r="D35" s="86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="85">
+        <v>48</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B37" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="88">
+        <v>96</v>
+      </c>
+      <c r="D37" s="89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="14_{2C160B8E-F762-48DE-84B6-0EB762DAF212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE274414-77CC-4DEB-B03E-13C68ADC492D}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="14_{2C160B8E-F762-48DE-84B6-0EB762DAF212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3585AC50-2278-402C-A43B-CA759D5E288A}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="405" windowWidth="23925" windowHeight="14145" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="1260" yWindow="405" windowWidth="23415" windowHeight="14325" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="233">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1581,40 +1581,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表の「姓」「名」それぞれの列に、「氏名」列から関数で取得した値を表示してください</t>
-    <rPh sb="0" eb="1">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>文字列操作関数の問題です。</t>
     <rPh sb="0" eb="5">
       <t>モジレツソウサ</t>
@@ -2032,6 +1998,78 @@
     <t>チャレンジ演習！</t>
     <rPh sb="5" eb="7">
       <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別が女性のセルだけを選択するようなこともできますが、</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これが5レコードだけではなく5,000レコードあったら疲れますよね？</t>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もっと良いやり方があるかもしれません</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表の「姓」「名」それぞれの列（I4、J4からのセル）に表示してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「氏名」列（B4からのセル）から「姓」と「名」を関数で取得して、</t>
+    <rPh sb="17" eb="18">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（文字数を直接数値で指定すると、八木澤さんや坂口さんは？？？）</t>
+    <rPh sb="1" eb="4">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ヤギサワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サカグチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2639,7 +2677,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2999,6 +3037,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3011,8 +3052,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3154,13 +3195,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>712518</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>21272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3254,7 +3295,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="374380" cy="378460"/>
@@ -4532,40 +4573,40 @@
         <v>43</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="C6" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="D6" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="E6" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="F6" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="G6" s="107" t="s">
         <v>204</v>
-      </c>
-      <c r="G6" s="107" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4573,10 +4614,10 @@
         <v>45677</v>
       </c>
       <c r="B7" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="109" t="s">
         <v>206</v>
-      </c>
-      <c r="C7" s="109" t="s">
-        <v>207</v>
       </c>
       <c r="D7" s="110">
         <v>12000</v>
@@ -4598,10 +4639,10 @@
         <v>45698</v>
       </c>
       <c r="B8" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="109" t="s">
         <v>208</v>
-      </c>
-      <c r="C8" s="109" t="s">
-        <v>209</v>
       </c>
       <c r="D8" s="110">
         <v>9000</v>
@@ -4623,10 +4664,10 @@
         <v>45698</v>
       </c>
       <c r="B9" s="109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="109" t="s">
         <v>210</v>
-      </c>
-      <c r="C9" s="109" t="s">
-        <v>211</v>
       </c>
       <c r="D9" s="110">
         <v>7000</v>
@@ -4648,10 +4689,10 @@
         <v>45718</v>
       </c>
       <c r="B10" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="109" t="s">
         <v>212</v>
-      </c>
-      <c r="C10" s="109" t="s">
-        <v>213</v>
       </c>
       <c r="D10" s="110">
         <v>10000</v>
@@ -4673,10 +4714,10 @@
         <v>45727</v>
       </c>
       <c r="B11" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="109" t="s">
         <v>206</v>
-      </c>
-      <c r="C11" s="109" t="s">
-        <v>207</v>
       </c>
       <c r="D11" s="110">
         <v>12000</v>
@@ -4698,10 +4739,10 @@
         <v>45768</v>
       </c>
       <c r="B12" s="109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="109" t="s">
         <v>214</v>
-      </c>
-      <c r="C12" s="109" t="s">
-        <v>215</v>
       </c>
       <c r="D12" s="110">
         <v>6000</v>
@@ -4723,10 +4764,10 @@
         <v>45768</v>
       </c>
       <c r="B13" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="109" t="s">
         <v>216</v>
-      </c>
-      <c r="C13" s="109" t="s">
-        <v>217</v>
       </c>
       <c r="D13" s="110">
         <v>16000</v>
@@ -4748,10 +4789,10 @@
         <v>45793</v>
       </c>
       <c r="B14" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="109" t="s">
         <v>206</v>
-      </c>
-      <c r="C14" s="109" t="s">
-        <v>207</v>
       </c>
       <c r="D14" s="110">
         <v>12000</v>
@@ -4773,10 +4814,10 @@
         <v>45793</v>
       </c>
       <c r="B15" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="109" t="s">
         <v>208</v>
-      </c>
-      <c r="C15" s="109" t="s">
-        <v>209</v>
       </c>
       <c r="D15" s="110">
         <v>9000</v>
@@ -4798,10 +4839,10 @@
         <v>45809</v>
       </c>
       <c r="B16" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="109" t="s">
         <v>218</v>
-      </c>
-      <c r="C16" s="109" t="s">
-        <v>219</v>
       </c>
       <c r="D16" s="110">
         <v>10000</v>
@@ -4823,10 +4864,10 @@
         <v>45826</v>
       </c>
       <c r="B17" s="109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="109" t="s">
         <v>214</v>
-      </c>
-      <c r="C17" s="109" t="s">
-        <v>215</v>
       </c>
       <c r="D17" s="110">
         <v>6000</v>
@@ -14109,7 +14150,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574642DF-B6FC-47D7-8F4E-74F8116D6D0D}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -14281,7 +14322,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -14415,41 +14456,72 @@
       </c>
       <c r="E35" s="9"/>
     </row>
+    <row r="36" spans="2:5">
+      <c r="D36" s="19"/>
+      <c r="E36" s="121"/>
+    </row>
     <row r="37" spans="2:5">
       <c r="C37" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="C38" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="C39" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="C40" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="18" t="s">
+    <row r="42" spans="2:5">
+      <c r="B42" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C42" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="D45" s="19"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="C46" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="C47" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="C40" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="D41" s="19"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="C42" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="C43" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+    <row r="48" spans="2:5">
+      <c r="C48" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14557,7 +14629,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -14570,11 +14642,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -14585,12 +14657,12 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -15019,20 +15091,20 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="B16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -15044,7 +15116,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -15073,7 +15145,7 @@
         <v>46</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -15115,7 +15187,7 @@
     <row r="34" spans="3:22">
       <c r="C34" s="18"/>
       <c r="D34" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="3:22">
@@ -15123,7 +15195,7 @@
         <v>46</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T36" s="19"/>
       <c r="U36" s="20"/>
@@ -15131,7 +15203,7 @@
     <row r="37" spans="3:22">
       <c r="D37" s="19"/>
       <c r="F37" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T37" s="19"/>
       <c r="U37" s="20"/>
@@ -15139,7 +15211,7 @@
     <row r="38" spans="3:22">
       <c r="D38" s="19"/>
       <c r="F38" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T38" s="19"/>
       <c r="U38" s="20"/>
@@ -15157,19 +15229,19 @@
         <v>46</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T40" s="19"/>
       <c r="U40" s="20"/>
     </row>
     <row r="41" spans="3:22">
       <c r="F41" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="3:22">
       <c r="F42" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="3:22">
@@ -15180,7 +15252,7 @@
     </row>
     <row r="45" spans="3:22">
       <c r="C45" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" s="18"/>
     </row>
@@ -15201,7 +15273,7 @@
         <v>46</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="4:5">
@@ -15680,258 +15752,258 @@
       <c r="B5" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="116">
+      <c r="C5" s="117">
         <v>1</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="116">
+      <c r="D5" s="118"/>
+      <c r="E5" s="117">
         <v>2</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="116">
+      <c r="F5" s="118"/>
+      <c r="G5" s="117">
         <v>3</v>
       </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="116">
+      <c r="H5" s="118"/>
+      <c r="I5" s="117">
         <v>4</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118">
+      <c r="J5" s="118"/>
+      <c r="K5" s="119">
         <v>5</v>
       </c>
-      <c r="L5" s="119"/>
-      <c r="M5" s="118">
+      <c r="L5" s="120"/>
+      <c r="M5" s="119">
         <v>6</v>
       </c>
-      <c r="N5" s="119"/>
-      <c r="O5" s="116">
+      <c r="N5" s="120"/>
+      <c r="O5" s="117">
         <v>7</v>
       </c>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="116">
+      <c r="P5" s="118"/>
+      <c r="Q5" s="117">
         <v>8</v>
       </c>
-      <c r="R5" s="117"/>
-      <c r="S5" s="116">
+      <c r="R5" s="118"/>
+      <c r="S5" s="117">
         <v>9</v>
       </c>
-      <c r="T5" s="117"/>
-      <c r="U5" s="116">
+      <c r="T5" s="118"/>
+      <c r="U5" s="117">
         <v>10</v>
       </c>
-      <c r="V5" s="117"/>
-      <c r="W5" s="116">
+      <c r="V5" s="118"/>
+      <c r="W5" s="117">
         <v>11</v>
       </c>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="118">
+      <c r="X5" s="118"/>
+      <c r="Y5" s="119">
         <v>12</v>
       </c>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="118">
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="119">
         <v>13</v>
       </c>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="116">
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="117">
         <v>14</v>
       </c>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="116">
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="117">
         <v>15</v>
       </c>
-      <c r="AF5" s="117"/>
-      <c r="AG5" s="116">
+      <c r="AF5" s="118"/>
+      <c r="AG5" s="117">
         <v>16</v>
       </c>
-      <c r="AH5" s="117"/>
-      <c r="AI5" s="116">
+      <c r="AH5" s="118"/>
+      <c r="AI5" s="117">
         <v>17</v>
       </c>
-      <c r="AJ5" s="117"/>
-      <c r="AK5" s="116">
+      <c r="AJ5" s="118"/>
+      <c r="AK5" s="117">
         <v>18</v>
       </c>
-      <c r="AL5" s="117"/>
-      <c r="AM5" s="118">
+      <c r="AL5" s="118"/>
+      <c r="AM5" s="119">
         <v>19</v>
       </c>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="118">
+      <c r="AN5" s="120"/>
+      <c r="AO5" s="119">
         <v>20</v>
       </c>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="116">
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="117">
         <v>21</v>
       </c>
-      <c r="AR5" s="117"/>
-      <c r="AS5" s="116">
+      <c r="AR5" s="118"/>
+      <c r="AS5" s="117">
         <v>22</v>
       </c>
-      <c r="AT5" s="117"/>
-      <c r="AU5" s="116">
+      <c r="AT5" s="118"/>
+      <c r="AU5" s="117">
         <v>23</v>
       </c>
-      <c r="AV5" s="117"/>
-      <c r="AW5" s="116">
+      <c r="AV5" s="118"/>
+      <c r="AW5" s="117">
         <v>24</v>
       </c>
-      <c r="AX5" s="117"/>
-      <c r="AY5" s="116">
+      <c r="AX5" s="118"/>
+      <c r="AY5" s="117">
         <v>25</v>
       </c>
-      <c r="AZ5" s="117"/>
-      <c r="BA5" s="118">
+      <c r="AZ5" s="118"/>
+      <c r="BA5" s="119">
         <v>26</v>
       </c>
-      <c r="BB5" s="119"/>
-      <c r="BC5" s="118">
+      <c r="BB5" s="120"/>
+      <c r="BC5" s="119">
         <v>27</v>
       </c>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="116">
+      <c r="BD5" s="120"/>
+      <c r="BE5" s="117">
         <v>28</v>
       </c>
-      <c r="BF5" s="117"/>
-      <c r="BG5" s="116">
+      <c r="BF5" s="118"/>
+      <c r="BG5" s="117">
         <v>29</v>
       </c>
-      <c r="BH5" s="117"/>
-      <c r="BI5" s="116">
+      <c r="BH5" s="118"/>
+      <c r="BI5" s="117">
         <v>30</v>
       </c>
-      <c r="BJ5" s="117"/>
-      <c r="BK5" s="116">
+      <c r="BJ5" s="118"/>
+      <c r="BK5" s="117">
         <v>31</v>
       </c>
-      <c r="BL5" s="117"/>
+      <c r="BL5" s="118"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="116" t="s">
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="116" t="s">
+      <c r="D6" s="118"/>
+      <c r="E6" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="117"/>
-      <c r="G6" s="116" t="s">
+      <c r="F6" s="118"/>
+      <c r="G6" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="117"/>
-      <c r="I6" s="116" t="s">
+      <c r="H6" s="118"/>
+      <c r="I6" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118" t="s">
+      <c r="J6" s="118"/>
+      <c r="K6" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="119"/>
-      <c r="M6" s="118" t="s">
+      <c r="L6" s="120"/>
+      <c r="M6" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="119"/>
-      <c r="O6" s="116" t="s">
+      <c r="N6" s="120"/>
+      <c r="O6" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="116" t="s">
+      <c r="P6" s="118"/>
+      <c r="Q6" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="117"/>
-      <c r="S6" s="116" t="s">
+      <c r="R6" s="118"/>
+      <c r="S6" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="117"/>
-      <c r="U6" s="116" t="s">
+      <c r="T6" s="118"/>
+      <c r="U6" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="117"/>
-      <c r="W6" s="116" t="s">
+      <c r="V6" s="118"/>
+      <c r="W6" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="118" t="s">
+      <c r="X6" s="118"/>
+      <c r="Y6" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="118" t="s">
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="116" t="s">
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="116" t="s">
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="117"/>
-      <c r="AG6" s="116" t="s">
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="AH6" s="117"/>
-      <c r="AI6" s="116" t="s">
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="AJ6" s="117"/>
-      <c r="AK6" s="116" t="s">
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="AL6" s="117"/>
-      <c r="AM6" s="118" t="s">
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="AN6" s="119"/>
-      <c r="AO6" s="118" t="s">
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="AP6" s="119"/>
-      <c r="AQ6" s="116" t="s">
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="AR6" s="117"/>
-      <c r="AS6" s="116" t="s">
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="AT6" s="117"/>
-      <c r="AU6" s="116" t="s">
+      <c r="AT6" s="118"/>
+      <c r="AU6" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="AV6" s="117"/>
-      <c r="AW6" s="116" t="s">
+      <c r="AV6" s="118"/>
+      <c r="AW6" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="AX6" s="117"/>
-      <c r="AY6" s="116" t="s">
+      <c r="AX6" s="118"/>
+      <c r="AY6" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="AZ6" s="117"/>
-      <c r="BA6" s="118" t="s">
+      <c r="AZ6" s="118"/>
+      <c r="BA6" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="BB6" s="119"/>
-      <c r="BC6" s="118" t="s">
+      <c r="BB6" s="120"/>
+      <c r="BC6" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="BD6" s="119"/>
-      <c r="BE6" s="116" t="s">
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="BF6" s="117"/>
-      <c r="BG6" s="116" t="s">
+      <c r="BF6" s="118"/>
+      <c r="BG6" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="BH6" s="117"/>
-      <c r="BI6" s="116" t="s">
+      <c r="BH6" s="118"/>
+      <c r="BI6" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="BJ6" s="117"/>
-      <c r="BK6" s="116" t="s">
+      <c r="BJ6" s="118"/>
+      <c r="BK6" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="BL6" s="117"/>
+      <c r="BL6" s="118"/>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="115"/>
@@ -16451,6 +16523,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -16467,54 +16587,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="14_{2C160B8E-F762-48DE-84B6-0EB762DAF212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3585AC50-2278-402C-A43B-CA759D5E288A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{BFE18E7E-9C5D-4542-A786-3AC570EEDDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41AFC5E3-2BFF-47A4-9CBC-EEDF1BE8D70F}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="405" windowWidth="23415" windowHeight="14325" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="805" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="セル参照" sheetId="16" r:id="rId3"/>
     <sheet name="条件付き書式" sheetId="17" r:id="rId4"/>
     <sheet name="書式設定【基礎】" sheetId="6" r:id="rId5"/>
-    <sheet name="条件分岐（複数条件）" sheetId="13" r:id="rId6"/>
-    <sheet name="書式設定【応用】" sheetId="7" r:id="rId7"/>
-    <sheet name="関数【応用】" sheetId="10" r:id="rId8"/>
-    <sheet name="条件分岐" sheetId="12" r:id="rId9"/>
+    <sheet name="書式設定【応用】" sheetId="7" r:id="rId6"/>
+    <sheet name="関数【応用】" sheetId="10" r:id="rId7"/>
+    <sheet name="条件分岐" sheetId="12" r:id="rId8"/>
+    <sheet name="条件分岐（複数条件）" sheetId="13" r:id="rId9"/>
     <sheet name="ピボットテーブル" sheetId="18" r:id="rId10"/>
     <sheet name="TOYOTAカレンダー" sheetId="8" r:id="rId11"/>
     <sheet name="LIST" sheetId="11" state="hidden" r:id="rId12"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="241">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -2070,6 +2070,80 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>サカグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造化参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の式は何を行なっているでしょう？</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの関数が行なっていることの意味を含めて説明してください</t>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=INDIRECT(ADDRESS(MAX(INDEX((LEN(StockPrice[S&amp;P500])&gt;0)*ROW(StockPrice[S&amp;P500]),0)), COLUMN()))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q11をXLOOKUPを使って更に簡単に目的を達成させてください</t>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タッセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2269,7 +2343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2666,6 +2740,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2677,7 +2842,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3031,6 +3196,9 @@
     <xf numFmtId="190" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3052,7 +3220,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3072,9 +3279,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF0066FF"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -14458,7 +14665,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="D36" s="19"/>
-      <c r="E36" s="121"/>
+      <c r="E36" s="114"/>
     </row>
     <row r="37" spans="2:5">
       <c r="C37" s="20" t="s">
@@ -14707,10 +14914,10 @@
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="112">
@@ -14839,8 +15046,8 @@
       </c>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
@@ -15291,431 +15498,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689EC7F3-02F8-430F-B583-4AFFA1276743}">
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" thickBot="1"/>
-    <row r="5" spans="1:10" ht="19.5" thickBot="1">
-      <c r="B5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" thickTop="1">
-      <c r="B6" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="64">
-        <v>67</v>
-      </c>
-      <c r="D6" s="68">
-        <v>79</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="G6" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="72">
-        <v>60</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="65">
-        <v>99</v>
-      </c>
-      <c r="D7" s="69">
-        <v>62</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="G7" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" s="72">
-        <v>60</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="65">
-        <v>75</v>
-      </c>
-      <c r="D8" s="69">
-        <v>78</v>
-      </c>
-      <c r="E8" s="58"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="65">
-        <v>45</v>
-      </c>
-      <c r="D9" s="69">
-        <v>58</v>
-      </c>
-      <c r="E9" s="58"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="65">
-        <v>55</v>
-      </c>
-      <c r="D10" s="69">
-        <v>50</v>
-      </c>
-      <c r="E10" s="58"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="65">
-        <v>74</v>
-      </c>
-      <c r="D11" s="69">
-        <v>70</v>
-      </c>
-      <c r="E11" s="58"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="65">
-        <v>67</v>
-      </c>
-      <c r="D12" s="69">
-        <v>65</v>
-      </c>
-      <c r="E12" s="58"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="65">
-        <v>45</v>
-      </c>
-      <c r="D13" s="69">
-        <v>44</v>
-      </c>
-      <c r="E13" s="58"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="65">
-        <v>70</v>
-      </c>
-      <c r="D14" s="69">
-        <v>60</v>
-      </c>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="65">
-        <v>100</v>
-      </c>
-      <c r="D15" s="69">
-        <v>80</v>
-      </c>
-      <c r="E15" s="58"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="65">
-        <v>66</v>
-      </c>
-      <c r="D16" s="69">
-        <v>40</v>
-      </c>
-      <c r="E16" s="58"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="65">
-        <v>48</v>
-      </c>
-      <c r="D17" s="69">
-        <v>35</v>
-      </c>
-      <c r="E17" s="58"/>
-    </row>
-    <row r="18" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B18" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="66">
-        <v>96</v>
-      </c>
-      <c r="D18" s="70">
-        <v>85</v>
-      </c>
-      <c r="E18" s="60"/>
-    </row>
-    <row r="20" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B20" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B21" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="19.5" thickTop="1">
-      <c r="B22" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="64">
-        <v>67</v>
-      </c>
-      <c r="D22" s="68">
-        <v>79</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="65">
-        <v>99</v>
-      </c>
-      <c r="D23" s="69">
-        <v>62</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="65">
-        <v>75</v>
-      </c>
-      <c r="D24" s="69">
-        <v>78</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="65">
-        <v>45</v>
-      </c>
-      <c r="D25" s="69">
-        <v>58</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="65">
-        <v>55</v>
-      </c>
-      <c r="D26" s="69">
-        <v>50</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="65">
-        <v>74</v>
-      </c>
-      <c r="D27" s="69">
-        <v>70</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="65">
-        <v>67</v>
-      </c>
-      <c r="D28" s="69">
-        <v>65</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="65">
-        <v>45</v>
-      </c>
-      <c r="D29" s="69">
-        <v>44</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="65">
-        <v>70</v>
-      </c>
-      <c r="D30" s="69">
-        <v>60</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="65">
-        <v>100</v>
-      </c>
-      <c r="D31" s="69">
-        <v>80</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="65">
-        <v>66</v>
-      </c>
-      <c r="D32" s="69">
-        <v>40</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="65">
-        <v>48</v>
-      </c>
-      <c r="D33" s="69">
-        <v>35</v>
-      </c>
-      <c r="E33" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B34" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="66">
-        <v>96</v>
-      </c>
-      <c r="D34" s="70">
-        <v>85</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C867672-5A85-4B0C-A0A5-E7FD6756FEBF}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
@@ -15746,268 +15528,268 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="117">
+      <c r="D5" s="119"/>
+      <c r="E5" s="118">
         <v>2</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="117">
+      <c r="F5" s="119"/>
+      <c r="G5" s="118">
         <v>3</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="117">
+      <c r="H5" s="119"/>
+      <c r="I5" s="118">
         <v>4</v>
       </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="119">
+      <c r="J5" s="119"/>
+      <c r="K5" s="120">
         <v>5</v>
       </c>
-      <c r="L5" s="120"/>
-      <c r="M5" s="119">
+      <c r="L5" s="121"/>
+      <c r="M5" s="120">
         <v>6</v>
       </c>
-      <c r="N5" s="120"/>
-      <c r="O5" s="117">
+      <c r="N5" s="121"/>
+      <c r="O5" s="118">
         <v>7</v>
       </c>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="117">
+      <c r="P5" s="119"/>
+      <c r="Q5" s="118">
         <v>8</v>
       </c>
-      <c r="R5" s="118"/>
-      <c r="S5" s="117">
+      <c r="R5" s="119"/>
+      <c r="S5" s="118">
         <v>9</v>
       </c>
-      <c r="T5" s="118"/>
-      <c r="U5" s="117">
+      <c r="T5" s="119"/>
+      <c r="U5" s="118">
         <v>10</v>
       </c>
-      <c r="V5" s="118"/>
-      <c r="W5" s="117">
+      <c r="V5" s="119"/>
+      <c r="W5" s="118">
         <v>11</v>
       </c>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="119">
+      <c r="X5" s="119"/>
+      <c r="Y5" s="120">
         <v>12</v>
       </c>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="119">
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="120">
         <v>13</v>
       </c>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="117">
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="118">
         <v>14</v>
       </c>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="117">
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="118">
         <v>15</v>
       </c>
-      <c r="AF5" s="118"/>
-      <c r="AG5" s="117">
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="118">
         <v>16</v>
       </c>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="117">
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="118">
         <v>17</v>
       </c>
-      <c r="AJ5" s="118"/>
-      <c r="AK5" s="117">
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="118">
         <v>18</v>
       </c>
-      <c r="AL5" s="118"/>
-      <c r="AM5" s="119">
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="120">
         <v>19</v>
       </c>
-      <c r="AN5" s="120"/>
-      <c r="AO5" s="119">
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="120">
         <v>20</v>
       </c>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="117">
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="118">
         <v>21</v>
       </c>
-      <c r="AR5" s="118"/>
-      <c r="AS5" s="117">
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="118">
         <v>22</v>
       </c>
-      <c r="AT5" s="118"/>
-      <c r="AU5" s="117">
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="118">
         <v>23</v>
       </c>
-      <c r="AV5" s="118"/>
-      <c r="AW5" s="117">
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="118">
         <v>24</v>
       </c>
-      <c r="AX5" s="118"/>
-      <c r="AY5" s="117">
+      <c r="AX5" s="119"/>
+      <c r="AY5" s="118">
         <v>25</v>
       </c>
-      <c r="AZ5" s="118"/>
-      <c r="BA5" s="119">
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="120">
         <v>26</v>
       </c>
-      <c r="BB5" s="120"/>
-      <c r="BC5" s="119">
+      <c r="BB5" s="121"/>
+      <c r="BC5" s="120">
         <v>27</v>
       </c>
-      <c r="BD5" s="120"/>
-      <c r="BE5" s="117">
+      <c r="BD5" s="121"/>
+      <c r="BE5" s="118">
         <v>28</v>
       </c>
-      <c r="BF5" s="118"/>
-      <c r="BG5" s="117">
+      <c r="BF5" s="119"/>
+      <c r="BG5" s="118">
         <v>29</v>
       </c>
-      <c r="BH5" s="118"/>
-      <c r="BI5" s="117">
+      <c r="BH5" s="119"/>
+      <c r="BI5" s="118">
         <v>30</v>
       </c>
-      <c r="BJ5" s="118"/>
-      <c r="BK5" s="117">
+      <c r="BJ5" s="119"/>
+      <c r="BK5" s="118">
         <v>31</v>
       </c>
-      <c r="BL5" s="118"/>
+      <c r="BL5" s="119"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="117" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="117" t="s">
+      <c r="D6" s="119"/>
+      <c r="E6" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="117" t="s">
+      <c r="F6" s="119"/>
+      <c r="G6" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="117" t="s">
+      <c r="H6" s="119"/>
+      <c r="I6" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="118"/>
-      <c r="K6" s="119" t="s">
+      <c r="J6" s="119"/>
+      <c r="K6" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="119" t="s">
+      <c r="L6" s="121"/>
+      <c r="M6" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="120"/>
-      <c r="O6" s="117" t="s">
+      <c r="N6" s="121"/>
+      <c r="O6" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="117" t="s">
+      <c r="P6" s="119"/>
+      <c r="Q6" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="118"/>
-      <c r="S6" s="117" t="s">
+      <c r="R6" s="119"/>
+      <c r="S6" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="118"/>
-      <c r="U6" s="117" t="s">
+      <c r="T6" s="119"/>
+      <c r="U6" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="118"/>
-      <c r="W6" s="117" t="s">
+      <c r="V6" s="119"/>
+      <c r="W6" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="119" t="s">
+      <c r="X6" s="119"/>
+      <c r="Y6" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="119" t="s">
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="117" t="s">
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="117" t="s">
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="117" t="s">
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="117" t="s">
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="117" t="s">
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="119" t="s">
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="119" t="s">
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="117" t="s">
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="117" t="s">
+      <c r="AR6" s="119"/>
+      <c r="AS6" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="117" t="s">
+      <c r="AT6" s="119"/>
+      <c r="AU6" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="AV6" s="118"/>
-      <c r="AW6" s="117" t="s">
+      <c r="AV6" s="119"/>
+      <c r="AW6" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="AX6" s="118"/>
-      <c r="AY6" s="117" t="s">
+      <c r="AX6" s="119"/>
+      <c r="AY6" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="AZ6" s="118"/>
-      <c r="BA6" s="119" t="s">
+      <c r="AZ6" s="119"/>
+      <c r="BA6" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="BB6" s="120"/>
-      <c r="BC6" s="119" t="s">
+      <c r="BB6" s="121"/>
+      <c r="BC6" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="117" t="s">
+      <c r="BD6" s="121"/>
+      <c r="BE6" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="BF6" s="118"/>
-      <c r="BG6" s="117" t="s">
+      <c r="BF6" s="119"/>
+      <c r="BG6" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="BH6" s="118"/>
-      <c r="BI6" s="117" t="s">
+      <c r="BH6" s="119"/>
+      <c r="BI6" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="BJ6" s="118"/>
-      <c r="BK6" s="117" t="s">
+      <c r="BJ6" s="119"/>
+      <c r="BK6" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="BL6" s="118"/>
+      <c r="BL6" s="119"/>
     </row>
     <row r="7" spans="1:64">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="14" t="s">
         <v>61</v>
       </c>
@@ -16594,9 +16376,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D41923-D28C-4D44-B8F8-AD674F8993FB}">
-  <dimension ref="B2:O56"/>
+  <dimension ref="B2:O72"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -17075,7 +16857,7 @@
         <v>5126</v>
       </c>
     </row>
-    <row r="49" spans="3:13">
+    <row r="49" spans="2:13">
       <c r="C49" s="46" t="s">
         <v>140</v>
       </c>
@@ -17110,7 +16892,7 @@
         <v>17481</v>
       </c>
     </row>
-    <row r="50" spans="3:13">
+    <row r="50" spans="2:13">
       <c r="C50" s="46" t="s">
         <v>141</v>
       </c>
@@ -17145,7 +16927,7 @@
         <v>7733</v>
       </c>
     </row>
-    <row r="51" spans="3:13">
+    <row r="51" spans="2:13">
       <c r="C51" s="46" t="s">
         <v>142</v>
       </c>
@@ -17180,7 +16962,7 @@
         <v>9173</v>
       </c>
     </row>
-    <row r="53" spans="3:13">
+    <row r="53" spans="2:13">
       <c r="D53" t="s">
         <v>143</v>
       </c>
@@ -17188,23 +16970,155 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="3:13">
+    <row r="54" spans="2:13">
       <c r="E54" s="19" t="s">
         <v>145</v>
       </c>
       <c r="F54" s="30"/>
     </row>
-    <row r="55" spans="3:13">
+    <row r="55" spans="2:13">
       <c r="E55" s="19" t="s">
         <v>146</v>
       </c>
       <c r="F55" s="30"/>
     </row>
-    <row r="56" spans="3:13">
+    <row r="56" spans="2:13">
       <c r="E56" s="19" t="s">
         <v>147</v>
       </c>
       <c r="F56" s="53"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="D59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="122" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="E60" s="122" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="E61" s="123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="E62" s="126"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="127"/>
+      <c r="L62" s="127"/>
+      <c r="M62" s="128"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="E63" s="129"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="124"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="130"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="E64" s="129"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
+      <c r="J64" s="124"/>
+      <c r="K64" s="124"/>
+      <c r="L64" s="124"/>
+      <c r="M64" s="130"/>
+    </row>
+    <row r="65" spans="4:13">
+      <c r="E65" s="129"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="124"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="130"/>
+    </row>
+    <row r="66" spans="4:13">
+      <c r="E66" s="129"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="130"/>
+    </row>
+    <row r="67" spans="4:13">
+      <c r="E67" s="129"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="130"/>
+    </row>
+    <row r="68" spans="4:13">
+      <c r="E68" s="129"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="124"/>
+      <c r="J68" s="124"/>
+      <c r="K68" s="124"/>
+      <c r="L68" s="124"/>
+      <c r="M68" s="130"/>
+    </row>
+    <row r="69" spans="4:13">
+      <c r="E69" s="131"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="125"/>
+      <c r="K69" s="125"/>
+      <c r="L69" s="125"/>
+      <c r="M69" s="132"/>
+    </row>
+    <row r="71" spans="4:13">
+      <c r="D71" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13">
+      <c r="E72" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="133"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="133"/>
+      <c r="J72" s="133"/>
+      <c r="K72" s="133"/>
+      <c r="L72" s="133"/>
+      <c r="M72" s="134"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -17233,7 +17147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A632DF-1DFD-4A38-9700-AB7F101EBB78}">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -17587,4 +17501,429 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689EC7F3-02F8-430F-B583-4AFFA1276743}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1"/>
+    <row r="5" spans="1:10" ht="19.5" thickBot="1">
+      <c r="B5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" thickTop="1">
+      <c r="B6" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="64">
+        <v>67</v>
+      </c>
+      <c r="D6" s="68">
+        <v>79</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="G6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="72">
+        <v>60</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="65">
+        <v>99</v>
+      </c>
+      <c r="D7" s="69">
+        <v>62</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="G7" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="72">
+        <v>60</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="65">
+        <v>75</v>
+      </c>
+      <c r="D8" s="69">
+        <v>78</v>
+      </c>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="65">
+        <v>45</v>
+      </c>
+      <c r="D9" s="69">
+        <v>58</v>
+      </c>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="65">
+        <v>55</v>
+      </c>
+      <c r="D10" s="69">
+        <v>50</v>
+      </c>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="65">
+        <v>74</v>
+      </c>
+      <c r="D11" s="69">
+        <v>70</v>
+      </c>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="65">
+        <v>67</v>
+      </c>
+      <c r="D12" s="69">
+        <v>65</v>
+      </c>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="65">
+        <v>45</v>
+      </c>
+      <c r="D13" s="69">
+        <v>44</v>
+      </c>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="65">
+        <v>70</v>
+      </c>
+      <c r="D14" s="69">
+        <v>60</v>
+      </c>
+      <c r="E14" s="58"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="65">
+        <v>100</v>
+      </c>
+      <c r="D15" s="69">
+        <v>80</v>
+      </c>
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="65">
+        <v>66</v>
+      </c>
+      <c r="D16" s="69">
+        <v>40</v>
+      </c>
+      <c r="E16" s="58"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="65">
+        <v>48</v>
+      </c>
+      <c r="D17" s="69">
+        <v>35</v>
+      </c>
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="2:5" ht="19.5" thickBot="1">
+      <c r="B18" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="66">
+        <v>96</v>
+      </c>
+      <c r="D18" s="70">
+        <v>85</v>
+      </c>
+      <c r="E18" s="60"/>
+    </row>
+    <row r="20" spans="2:5" ht="19.5" thickBot="1">
+      <c r="B20" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="19.5" thickBot="1">
+      <c r="B21" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="19.5" thickTop="1">
+      <c r="B22" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="64">
+        <v>67</v>
+      </c>
+      <c r="D22" s="68">
+        <v>79</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="65">
+        <v>99</v>
+      </c>
+      <c r="D23" s="69">
+        <v>62</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="65">
+        <v>75</v>
+      </c>
+      <c r="D24" s="69">
+        <v>78</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="65">
+        <v>45</v>
+      </c>
+      <c r="D25" s="69">
+        <v>58</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="65">
+        <v>55</v>
+      </c>
+      <c r="D26" s="69">
+        <v>50</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="65">
+        <v>74</v>
+      </c>
+      <c r="D27" s="69">
+        <v>70</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="65">
+        <v>67</v>
+      </c>
+      <c r="D28" s="69">
+        <v>65</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="65">
+        <v>45</v>
+      </c>
+      <c r="D29" s="69">
+        <v>44</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="65">
+        <v>70</v>
+      </c>
+      <c r="D30" s="69">
+        <v>60</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="65">
+        <v>100</v>
+      </c>
+      <c r="D31" s="69">
+        <v>80</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="65">
+        <v>66</v>
+      </c>
+      <c r="D32" s="69">
+        <v>40</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="65">
+        <v>48</v>
+      </c>
+      <c r="D33" s="69">
+        <v>35</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="19.5" thickBot="1">
+      <c r="B34" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="66">
+        <v>96</v>
+      </c>
+      <c r="D34" s="70">
+        <v>85</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>